--- a/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_10_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_10_1_replicas_SMOTE.xlsx
@@ -17,7 +17,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="335">
+  <si>
+    <t>Baseline - Majority Class</t>
+  </si>
   <si>
     <t>KNN</t>
   </si>
@@ -43,9 +46,6 @@
     <t>SVM</t>
   </si>
   <si>
-    <t>Baseline - Majority Class</t>
-  </si>
-  <si>
     <t>Train Accuracy (F1 Score micro)</t>
   </si>
   <si>
@@ -76,904 +76,952 @@
     <t>Time</t>
   </si>
   <si>
-    <t>0.927+/-0.024</t>
-  </si>
-  <si>
-    <t>0.738+/-0.0</t>
+    <t>0.5+/-0.0</t>
+  </si>
+  <si>
+    <t>0.798</t>
+  </si>
+  <si>
+    <t>0.05+/-0.15</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0.1+/-0.3</t>
+  </si>
+  <si>
+    <t>0.001+/-0.0</t>
+  </si>
+  <si>
+    <t>0.946+/-0.021</t>
+  </si>
+  <si>
+    <t>0.743+/-0.0</t>
+  </si>
+  <si>
+    <t>0.579</t>
+  </si>
+  <si>
+    <t>0.937+/-0.031</t>
+  </si>
+  <si>
+    <t>0.688+/-0.004</t>
+  </si>
+  <si>
+    <t>0.268</t>
+  </si>
+  <si>
+    <t>0.961+/-0.076</t>
+  </si>
+  <si>
+    <t>0.888+/-0.1</t>
+  </si>
+  <si>
+    <t>0.627</t>
+  </si>
+  <si>
+    <t>0.004+/-0.0</t>
+  </si>
+  <si>
+    <t>0.631+/-0.002</t>
+  </si>
+  <si>
+    <t>0.629+/-0.0</t>
+  </si>
+  <si>
+    <t>0.547</t>
+  </si>
+  <si>
+    <t>0.614+/-0.001</t>
+  </si>
+  <si>
+    <t>0.613+/-0.01</t>
+  </si>
+  <si>
+    <t>0.252</t>
+  </si>
+  <si>
+    <t>0.705+/-0.005</t>
+  </si>
+  <si>
+    <t>0.702+/-0.021</t>
+  </si>
+  <si>
+    <t>0.635</t>
+  </si>
+  <si>
+    <t>1.047+/-0.176</t>
+  </si>
+  <si>
+    <t>0.553+/-0.001</t>
+  </si>
+  <si>
+    <t>0.551+/-0.0</t>
+  </si>
+  <si>
+    <t>0.324</t>
+  </si>
+  <si>
+    <t>0.531+/-0.001</t>
+  </si>
+  <si>
+    <t>0.53+/-0.005</t>
+  </si>
+  <si>
+    <t>0.213</t>
+  </si>
+  <si>
+    <t>0.911+/-0.004</t>
+  </si>
+  <si>
+    <t>0.911+/-0.009</t>
+  </si>
+  <si>
+    <t>0.875</t>
+  </si>
+  <si>
+    <t>0.011+/-0.001</t>
+  </si>
+  <si>
+    <t>0.597+/-0.002</t>
+  </si>
+  <si>
+    <t>0.597+/-0.0</t>
+  </si>
+  <si>
+    <t>0.501</t>
+  </si>
+  <si>
+    <t>0.583+/-0.001</t>
+  </si>
+  <si>
+    <t>0.583+/-0.011</t>
+  </si>
+  <si>
+    <t>0.218</t>
+  </si>
+  <si>
+    <t>0.678+/-0.002</t>
+  </si>
+  <si>
+    <t>0.678+/-0.017</t>
+  </si>
+  <si>
+    <t>0.568</t>
+  </si>
+  <si>
+    <t>0.012+/-0.001</t>
+  </si>
+  <si>
+    <t>0.781+/-0.009</t>
+  </si>
+  <si>
+    <t>0.726+/-0.0</t>
+  </si>
+  <si>
+    <t>0.615</t>
+  </si>
+  <si>
+    <t>0.741+/-0.01</t>
+  </si>
+  <si>
+    <t>0.689+/-0.016</t>
+  </si>
+  <si>
+    <t>0.263</t>
+  </si>
+  <si>
+    <t>0.864+/-0.03</t>
+  </si>
+  <si>
+    <t>0.825+/-0.024</t>
+  </si>
+  <si>
+    <t>0.507</t>
+  </si>
+  <si>
+    <t>19.126+/-5.376</t>
+  </si>
+  <si>
+    <t>0.807+/-0.006</t>
+  </si>
+  <si>
+    <t>0.744+/-0.0</t>
+  </si>
+  <si>
+    <t>0.631</t>
+  </si>
+  <si>
+    <t>0.782+/-0.016</t>
+  </si>
+  <si>
+    <t>0.722+/-0.014</t>
+  </si>
+  <si>
+    <t>0.269</t>
+  </si>
+  <si>
+    <t>0.853+/-0.021</t>
+  </si>
+  <si>
+    <t>0.795+/-0.02</t>
+  </si>
+  <si>
+    <t>0.485</t>
+  </si>
+  <si>
+    <t>0.146+/-0.006</t>
+  </si>
+  <si>
+    <t>0.783+/-0.009</t>
+  </si>
+  <si>
+    <t>0.731+/-0.0</t>
+  </si>
+  <si>
+    <t>0.642</t>
+  </si>
+  <si>
+    <t>0.763+/-0.017</t>
+  </si>
+  <si>
+    <t>0.711+/-0.018</t>
+  </si>
+  <si>
+    <t>0.287</t>
+  </si>
+  <si>
+    <t>0.823+/-0.041</t>
+  </si>
+  <si>
+    <t>0.78+/-0.03</t>
+  </si>
+  <si>
+    <t>0.523</t>
+  </si>
+  <si>
+    <t>0.223+/-0.027</t>
+  </si>
+  <si>
+    <t>0.698+/-0.003</t>
+  </si>
+  <si>
+    <t>0.679+/-0.0</t>
+  </si>
+  <si>
+    <t>0.594</t>
+  </si>
+  <si>
+    <t>0.674+/-0.003</t>
+  </si>
+  <si>
+    <t>0.658+/-0.008</t>
+  </si>
+  <si>
+    <t>0.767+/-0.005</t>
+  </si>
+  <si>
+    <t>0.747+/-0.024</t>
+  </si>
+  <si>
+    <t>0.592</t>
+  </si>
+  <si>
+    <t>80.149+/-3.113</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.944+/-0.024</t>
+  </si>
+  <si>
+    <t>0.774+/-0.0</t>
+  </si>
+  <si>
+    <t>0.574</t>
+  </si>
+  <si>
+    <t>0.935+/-0.032</t>
+  </si>
+  <si>
+    <t>0.704+/-0.011</t>
+  </si>
+  <si>
+    <t>0.197</t>
+  </si>
+  <si>
+    <t>0.958+/-0.083</t>
+  </si>
+  <si>
+    <t>0.945+/-0.085</t>
+  </si>
+  <si>
+    <t>0.599</t>
+  </si>
+  <si>
+    <t>0.003+/-0.0</t>
+  </si>
+  <si>
+    <t>0.649+/-0.001</t>
+  </si>
+  <si>
+    <t>0.647+/-0.0</t>
+  </si>
+  <si>
+    <t>0.572</t>
+  </si>
+  <si>
+    <t>0.636+/-0.001</t>
+  </si>
+  <si>
+    <t>0.635+/-0.013</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>0.693+/-0.004</t>
+  </si>
+  <si>
+    <t>0.69+/-0.013</t>
+  </si>
+  <si>
+    <t>0.566</t>
+  </si>
+  <si>
+    <t>0.986+/-0.083</t>
+  </si>
+  <si>
+    <t>0.571+/-0.002</t>
+  </si>
+  <si>
+    <t>0.571+/-0.0</t>
+  </si>
+  <si>
+    <t>0.375</t>
+  </si>
+  <si>
+    <t>0.547+/-0.002</t>
+  </si>
+  <si>
+    <t>0.547+/-0.007</t>
+  </si>
+  <si>
+    <t>0.165</t>
+  </si>
+  <si>
+    <t>0.83+/-0.003</t>
+  </si>
+  <si>
+    <t>0.83+/-0.011</t>
+  </si>
+  <si>
+    <t>0.781</t>
+  </si>
+  <si>
+    <t>0.01+/-0.001</t>
+  </si>
+  <si>
+    <t>0.609+/-0.001</t>
+  </si>
+  <si>
+    <t>0.609+/-0.0</t>
+  </si>
+  <si>
+    <t>0.511</t>
+  </si>
+  <si>
+    <t>0.591+/-0.001</t>
+  </si>
+  <si>
+    <t>0.592+/-0.014</t>
+  </si>
+  <si>
+    <t>0.175</t>
+  </si>
+  <si>
+    <t>0.703+/-0.002</t>
+  </si>
+  <si>
+    <t>0.703+/-0.021</t>
+  </si>
+  <si>
+    <t>0.609</t>
+  </si>
+  <si>
+    <t>0.803+/-0.009</t>
+  </si>
+  <si>
+    <t>0.746+/-0.0</t>
+  </si>
+  <si>
+    <t>0.637</t>
+  </si>
+  <si>
+    <t>0.763+/-0.015</t>
+  </si>
+  <si>
+    <t>0.711+/-0.012</t>
+  </si>
+  <si>
+    <t>0.216</t>
+  </si>
+  <si>
+    <t>0.88+/-0.031</t>
+  </si>
+  <si>
+    <t>0.832+/-0.048</t>
+  </si>
+  <si>
+    <t>0.541</t>
+  </si>
+  <si>
+    <t>9.688+/-2.556</t>
+  </si>
+  <si>
+    <t>0.808+/-0.013</t>
+  </si>
+  <si>
+    <t>0.763+/-0.0</t>
+  </si>
+  <si>
+    <t>0.704</t>
+  </si>
+  <si>
+    <t>0.805+/-0.019</t>
+  </si>
+  <si>
+    <t>0.758+/-0.016</t>
+  </si>
+  <si>
+    <t>0.222</t>
+  </si>
+  <si>
+    <t>0.814+/-0.034</t>
+  </si>
+  <si>
+    <t>0.773+/-0.037</t>
+  </si>
+  <si>
+    <t>0.391</t>
+  </si>
+  <si>
+    <t>0.131+/-0.006</t>
+  </si>
+  <si>
+    <t>0.79+/-0.008</t>
+  </si>
+  <si>
+    <t>0.754+/-0.0</t>
+  </si>
+  <si>
+    <t>0.687</t>
+  </si>
+  <si>
+    <t>0.788+/-0.015</t>
+  </si>
+  <si>
+    <t>0.749+/-0.019</t>
+  </si>
+  <si>
+    <t>0.227</t>
+  </si>
+  <si>
+    <t>0.796+/-0.036</t>
+  </si>
+  <si>
+    <t>0.765+/-0.037</t>
+  </si>
+  <si>
+    <t>0.452</t>
+  </si>
+  <si>
+    <t>0.206+/-0.002</t>
+  </si>
+  <si>
+    <t>0.724+/-0.002</t>
+  </si>
+  <si>
+    <t>0.706+/-0.0</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>0.695+/-0.002</t>
+  </si>
+  <si>
+    <t>0.679+/-0.015</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>0.8+/-0.007</t>
+  </si>
+  <si>
+    <t>0.782+/-0.021</t>
+  </si>
+  <si>
+    <t>0.577</t>
+  </si>
+  <si>
+    <t>54.153+/-2.568</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.15+/-0.229</t>
+  </si>
+  <si>
+    <t>0.3+/-0.458</t>
+  </si>
+  <si>
+    <t>0.957+/-0.005</t>
+  </si>
+  <si>
+    <t>0.697+/-0.0</t>
+  </si>
+  <si>
+    <t>0.573</t>
+  </si>
+  <si>
+    <t>0.99+/-0.031</t>
+  </si>
+  <si>
+    <t>0.651+/-0.015</t>
+  </si>
+  <si>
+    <t>0.322</t>
+  </si>
+  <si>
+    <t>0.925+/-0.025</t>
+  </si>
+  <si>
+    <t>0.85+/-0.03</t>
+  </si>
+  <si>
+    <t>0.493</t>
+  </si>
+  <si>
+    <t>0.565+/-0.002</t>
+  </si>
+  <si>
+    <t>0.564+/-0.0</t>
+  </si>
+  <si>
+    <t>0.595</t>
+  </si>
+  <si>
+    <t>0.575+/-0.002</t>
+  </si>
+  <si>
+    <t>0.573+/-0.021</t>
+  </si>
+  <si>
+    <t>0.342</t>
+  </si>
+  <si>
+    <t>0.5+/-0.006</t>
+  </si>
+  <si>
+    <t>0.498+/-0.037</t>
+  </si>
+  <si>
+    <t>0.503</t>
+  </si>
+  <si>
+    <t>0.445+/-0.045</t>
+  </si>
+  <si>
+    <t>0.548+/-0.002</t>
+  </si>
+  <si>
+    <t>0.545+/-0.0</t>
+  </si>
+  <si>
+    <t>0.613</t>
+  </si>
+  <si>
+    <t>0.57+/-0.005</t>
+  </si>
+  <si>
+    <t>0.564+/-0.023</t>
+  </si>
+  <si>
+    <t>0.334</t>
+  </si>
+  <si>
+    <t>0.396+/-0.025</t>
+  </si>
+  <si>
+    <t>0.394+/-0.044</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.007+/-0.0</t>
+  </si>
+  <si>
+    <t>0.548+/-0.0</t>
+  </si>
+  <si>
+    <t>0.553+/-0.002</t>
+  </si>
+  <si>
+    <t>0.553+/-0.018</t>
+  </si>
+  <si>
+    <t>0.497+/-0.002</t>
+  </si>
+  <si>
+    <t>0.497+/-0.022</t>
+  </si>
+  <si>
+    <t>0.009+/-0.0</t>
+  </si>
+  <si>
+    <t>0.708+/-0.008</t>
+  </si>
+  <si>
+    <t>0.635+/-0.0</t>
+  </si>
+  <si>
+    <t>0.616</t>
+  </si>
+  <si>
+    <t>0.728+/-0.029</t>
+  </si>
+  <si>
+    <t>0.646+/-0.022</t>
+  </si>
+  <si>
+    <t>0.339</t>
+  </si>
+  <si>
+    <t>0.672+/-0.065</t>
+  </si>
+  <si>
+    <t>0.604+/-0.062</t>
+  </si>
+  <si>
+    <t>0.408</t>
+  </si>
+  <si>
+    <t>5.302+/-1.353</t>
+  </si>
+  <si>
+    <t>0.72+/-0.008</t>
+  </si>
+  <si>
+    <t>0.65+/-0.0</t>
+  </si>
+  <si>
+    <t>0.794+/-0.041</t>
+  </si>
+  <si>
+    <t>0.703+/-0.025</t>
+  </si>
+  <si>
+    <t>0.338</t>
+  </si>
+  <si>
+    <t>0.601+/-0.053</t>
+  </si>
+  <si>
+    <t>0.525+/-0.054</t>
+  </si>
+  <si>
+    <t>0.346</t>
+  </si>
+  <si>
+    <t>0.129+/-0.006</t>
+  </si>
+  <si>
+    <t>0.7+/-0.008</t>
+  </si>
+  <si>
+    <t>0.642+/-0.0</t>
+  </si>
+  <si>
+    <t>0.661</t>
+  </si>
+  <si>
+    <t>0.769+/-0.045</t>
+  </si>
+  <si>
+    <t>0.692+/-0.042</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>0.582+/-0.063</t>
+  </si>
+  <si>
+    <t>0.521+/-0.057</t>
+  </si>
+  <si>
+    <t>0.289</t>
+  </si>
+  <si>
+    <t>0.189+/-0.005</t>
+  </si>
+  <si>
+    <t>0.648+/-0.002</t>
+  </si>
+  <si>
+    <t>0.608+/-0.0</t>
+  </si>
+  <si>
+    <t>0.596</t>
+  </si>
+  <si>
+    <t>0.648+/-0.003</t>
+  </si>
+  <si>
+    <t>0.607+/-0.013</t>
+  </si>
+  <si>
+    <t>0.347</t>
+  </si>
+  <si>
+    <t>0.648+/-0.008</t>
+  </si>
+  <si>
+    <t>0.612+/-0.022</t>
+  </si>
+  <si>
+    <t>0.518</t>
+  </si>
+  <si>
+    <t>58.85+/-10.59</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.25+/-0.25</t>
+  </si>
+  <si>
+    <t>0.5+/-0.5</t>
+  </si>
+  <si>
+    <t>0.953+/-0.008</t>
+  </si>
+  <si>
+    <t>0.677+/-0.0</t>
+  </si>
+  <si>
+    <t>0.558</t>
+  </si>
+  <si>
+    <t>0.969+/-0.048</t>
+  </si>
+  <si>
+    <t>0.636+/-0.018</t>
+  </si>
+  <si>
+    <t>0.349</t>
+  </si>
+  <si>
+    <t>0.941+/-0.038</t>
+  </si>
+  <si>
+    <t>0.834+/-0.04</t>
+  </si>
+  <si>
+    <t>0.553+/-0.003</t>
+  </si>
+  <si>
+    <t>0.559+/-0.003</t>
+  </si>
+  <si>
+    <t>0.551+/-0.017</t>
+  </si>
+  <si>
+    <t>0.364</t>
+  </si>
+  <si>
+    <t>0.497+/-0.008</t>
+  </si>
+  <si>
+    <t>0.489+/-0.018</t>
+  </si>
+  <si>
+    <t>0.497</t>
+  </si>
+  <si>
+    <t>0.705+/-0.118</t>
+  </si>
+  <si>
+    <t>0.546+/-0.005</t>
+  </si>
+  <si>
+    <t>0.544+/-0.0</t>
+  </si>
+  <si>
+    <t>0.607</t>
+  </si>
+  <si>
+    <t>0.569+/-0.004</t>
+  </si>
+  <si>
+    <t>0.566+/-0.025</t>
+  </si>
+  <si>
+    <t>0.366</t>
+  </si>
+  <si>
+    <t>0.377+/-0.025</t>
+  </si>
+  <si>
+    <t>0.376+/-0.035</t>
+  </si>
+  <si>
+    <t>0.013+/-0.006</t>
+  </si>
+  <si>
+    <t>0.541+/-0.001</t>
+  </si>
+  <si>
+    <t>0.541+/-0.0</t>
   </si>
   <si>
     <t>0.567</t>
   </si>
   <si>
-    <t>0.968+/-0.038</t>
-  </si>
-  <si>
-    <t>0.691+/-0.007</t>
-  </si>
-  <si>
-    <t>0.261</t>
-  </si>
-  <si>
-    <t>0.888+/-0.091</t>
-  </si>
-  <si>
-    <t>0.861+/-0.088</t>
-  </si>
-  <si>
-    <t>0.629</t>
-  </si>
-  <si>
-    <t>0.003+/-0.0</t>
-  </si>
-  <si>
-    <t>0.629+/-0.001</t>
-  </si>
-  <si>
-    <t>0.628+/-0.0</t>
-  </si>
-  <si>
-    <t>0.547</t>
-  </si>
-  <si>
-    <t>0.611+/-0.001</t>
-  </si>
-  <si>
-    <t>0.61+/-0.006</t>
-  </si>
-  <si>
-    <t>0.256</t>
-  </si>
-  <si>
-    <t>0.708+/-0.003</t>
-  </si>
-  <si>
-    <t>0.708+/-0.027</t>
-  </si>
-  <si>
-    <t>0.653</t>
-  </si>
-  <si>
-    <t>0.699+/-0.045</t>
-  </si>
-  <si>
-    <t>0.558+/-0.001</t>
-  </si>
-  <si>
-    <t>0.559+/-0.0</t>
-  </si>
-  <si>
-    <t>0.347</t>
-  </si>
-  <si>
-    <t>0.535+/-0.001</t>
-  </si>
-  <si>
-    <t>0.536+/-0.006</t>
-  </si>
-  <si>
-    <t>0.214</t>
-  </si>
-  <si>
-    <t>0.881+/-0.002</t>
-  </si>
-  <si>
-    <t>0.881+/-0.012</t>
-  </si>
-  <si>
-    <t>0.835</t>
-  </si>
-  <si>
-    <t>0.007+/-0.0</t>
-  </si>
-  <si>
-    <t>0.593+/-0.001</t>
-  </si>
-  <si>
-    <t>0.593+/-0.0</t>
-  </si>
-  <si>
-    <t>0.504</t>
-  </si>
-  <si>
-    <t>0.581+/-0.001</t>
-  </si>
-  <si>
-    <t>0.58+/-0.01</t>
-  </si>
-  <si>
-    <t>0.218</t>
-  </si>
-  <si>
-    <t>0.668+/-0.002</t>
-  </si>
-  <si>
-    <t>0.668+/-0.021</t>
-  </si>
-  <si>
-    <t>0.565</t>
-  </si>
-  <si>
-    <t>0.009+/-0.0</t>
-  </si>
-  <si>
-    <t>0.791+/-0.008</t>
-  </si>
-  <si>
-    <t>0.73+/-0.0</t>
-  </si>
-  <si>
-    <t>0.637</t>
-  </si>
-  <si>
-    <t>0.745+/-0.011</t>
-  </si>
-  <si>
-    <t>0.69+/-0.011</t>
-  </si>
-  <si>
-    <t>0.278</t>
-  </si>
-  <si>
-    <t>0.887+/-0.017</t>
-  </si>
-  <si>
-    <t>0.836+/-0.03</t>
-  </si>
-  <si>
-    <t>5.284+/-1.122</t>
-  </si>
-  <si>
-    <t>0.802+/-0.008</t>
-  </si>
-  <si>
-    <t>0.735+/-0.0</t>
-  </si>
-  <si>
-    <t>0.608</t>
-  </si>
-  <si>
-    <t>0.777+/-0.021</t>
-  </si>
-  <si>
-    <t>0.716+/-0.023</t>
-  </si>
-  <si>
-    <t>0.257</t>
-  </si>
-  <si>
-    <t>0.85+/-0.027</t>
-  </si>
-  <si>
-    <t>0.782+/-0.034</t>
-  </si>
-  <si>
-    <t>0.501</t>
-  </si>
-  <si>
-    <t>0.127+/-0.007</t>
-  </si>
-  <si>
-    <t>0.769+/-0.007</t>
-  </si>
-  <si>
-    <t>0.716+/-0.0</t>
-  </si>
-  <si>
-    <t>0.606</t>
-  </si>
-  <si>
-    <t>0.742+/-0.025</t>
-  </si>
-  <si>
-    <t>0.694+/-0.027</t>
-  </si>
-  <si>
-    <t>0.252</t>
-  </si>
-  <si>
-    <t>0.828+/-0.035</t>
-  </si>
-  <si>
-    <t>0.776+/-0.041</t>
-  </si>
-  <si>
-    <t>0.485</t>
-  </si>
-  <si>
-    <t>0.18+/-0.009</t>
-  </si>
-  <si>
-    <t>0.714+/-0.002</t>
-  </si>
-  <si>
-    <t>0.694+/-0.0</t>
-  </si>
-  <si>
-    <t>0.591</t>
-  </si>
-  <si>
-    <t>0.683+/-0.001</t>
-  </si>
-  <si>
-    <t>0.666+/-0.009</t>
-  </si>
-  <si>
-    <t>0.268</t>
-  </si>
-  <si>
-    <t>0.798+/-0.005</t>
-  </si>
-  <si>
-    <t>0.779+/-0.014</t>
-  </si>
-  <si>
-    <t>0.595</t>
-  </si>
-  <si>
-    <t>56.809+/-8.573</t>
-  </si>
-  <si>
-    <t>0.944+/-0.025</t>
-  </si>
-  <si>
-    <t>0.776+/-0.0</t>
-  </si>
-  <si>
-    <t>0.589</t>
-  </si>
-  <si>
-    <t>0.935+/-0.032</t>
-  </si>
-  <si>
-    <t>0.706+/-0.009</t>
-  </si>
-  <si>
-    <t>0.202</t>
-  </si>
-  <si>
-    <t>0.957+/-0.085</t>
-  </si>
-  <si>
-    <t>0.948+/-0.078</t>
-  </si>
-  <si>
-    <t>0.646+/-0.001</t>
-  </si>
-  <si>
-    <t>0.645+/-0.0</t>
-  </si>
-  <si>
-    <t>0.569</t>
-  </si>
-  <si>
-    <t>0.631+/-0.001</t>
-  </si>
-  <si>
-    <t>0.63+/-0.009</t>
-  </si>
-  <si>
-    <t>0.193</t>
-  </si>
-  <si>
-    <t>0.704+/-0.003</t>
-  </si>
-  <si>
-    <t>0.703+/-0.017</t>
-  </si>
-  <si>
-    <t>0.588</t>
-  </si>
-  <si>
-    <t>0.922+/-0.062</t>
-  </si>
-  <si>
-    <t>0.562+/-0.001</t>
-  </si>
-  <si>
-    <t>0.562+/-0.0</t>
-  </si>
-  <si>
-    <t>0.353</t>
-  </si>
-  <si>
-    <t>0.539+/-0.001</t>
-  </si>
-  <si>
-    <t>0.539+/-0.005</t>
-  </si>
-  <si>
-    <t>0.166</t>
-  </si>
-  <si>
-    <t>0.848+/-0.003</t>
-  </si>
-  <si>
-    <t>0.849+/-0.011</t>
-  </si>
-  <si>
-    <t>0.824</t>
-  </si>
-  <si>
-    <t>0.011+/-0.002</t>
-  </si>
-  <si>
-    <t>0.604+/-0.001</t>
-  </si>
-  <si>
-    <t>0.604+/-0.0</t>
-  </si>
-  <si>
-    <t>0.505</t>
-  </si>
-  <si>
-    <t>0.588+/-0.001</t>
-  </si>
-  <si>
-    <t>0.587+/-0.01</t>
-  </si>
-  <si>
-    <t>0.172</t>
-  </si>
-  <si>
-    <t>0.7+/-0.002</t>
-  </si>
-  <si>
-    <t>0.699+/-0.019</t>
-  </si>
-  <si>
-    <t>0.01+/-0.001</t>
-  </si>
-  <si>
-    <t>0.8+/-0.01</t>
-  </si>
-  <si>
-    <t>0.751+/-0.0</t>
-  </si>
-  <si>
-    <t>0.633</t>
-  </si>
-  <si>
-    <t>0.753+/-0.015</t>
-  </si>
-  <si>
-    <t>0.708+/-0.015</t>
-  </si>
-  <si>
-    <t>0.894+/-0.023</t>
-  </si>
-  <si>
-    <t>0.857+/-0.028</t>
-  </si>
-  <si>
-    <t>0.541</t>
-  </si>
-  <si>
-    <t>6.402+/-1.171</t>
-  </si>
-  <si>
-    <t>0.818+/-0.007</t>
-  </si>
-  <si>
-    <t>0.758+/-0.0</t>
-  </si>
-  <si>
-    <t>0.662</t>
-  </si>
-  <si>
-    <t>0.794+/-0.021</t>
-  </si>
-  <si>
-    <t>0.738+/-0.02</t>
-  </si>
-  <si>
-    <t>0.226</t>
-  </si>
-  <si>
-    <t>0.861+/-0.026</t>
-  </si>
-  <si>
-    <t>0.803+/-0.037</t>
-  </si>
-  <si>
-    <t>0.516</t>
-  </si>
-  <si>
-    <t>0.134+/-0.003</t>
-  </si>
-  <si>
-    <t>0.797+/-0.008</t>
-  </si>
-  <si>
-    <t>0.749+/-0.0</t>
-  </si>
-  <si>
-    <t>0.673</t>
-  </si>
-  <si>
-    <t>0.775+/-0.022</t>
-  </si>
-  <si>
-    <t>0.729+/-0.024</t>
-  </si>
-  <si>
-    <t>0.224</t>
-  </si>
-  <si>
-    <t>0.842+/-0.043</t>
-  </si>
-  <si>
-    <t>0.798+/-0.043</t>
-  </si>
-  <si>
-    <t>0.48</t>
-  </si>
-  <si>
-    <t>0.192+/-0.005</t>
-  </si>
-  <si>
-    <t>0.718+/-0.002</t>
-  </si>
-  <si>
-    <t>0.702+/-0.0</t>
-  </si>
-  <si>
-    <t>0.619</t>
-  </si>
-  <si>
-    <t>0.695+/-0.001</t>
-  </si>
-  <si>
-    <t>0.681+/-0.009</t>
-  </si>
-  <si>
-    <t>0.205</t>
-  </si>
-  <si>
-    <t>0.775+/-0.007</t>
-  </si>
-  <si>
-    <t>0.76+/-0.017</t>
-  </si>
-  <si>
-    <t>0.534</t>
-  </si>
-  <si>
-    <t>59.649+/-9.203</t>
-  </si>
-  <si>
-    <t>0.954+/-0.008</t>
-  </si>
-  <si>
-    <t>0.69+/-0.0</t>
-  </si>
-  <si>
-    <t>0.554</t>
-  </si>
-  <si>
-    <t>0.969+/-0.047</t>
-  </si>
-  <si>
-    <t>0.64+/-0.018</t>
-  </si>
-  <si>
-    <t>0.311</t>
-  </si>
-  <si>
-    <t>0.943+/-0.037</t>
-  </si>
-  <si>
-    <t>0.871+/-0.038</t>
-  </si>
-  <si>
-    <t>0.503</t>
-  </si>
-  <si>
-    <t>0.575+/-0.002</t>
-  </si>
-  <si>
-    <t>0.57+/-0.0</t>
-  </si>
-  <si>
-    <t>0.592</t>
-  </si>
-  <si>
-    <t>0.582+/-0.002</t>
-  </si>
-  <si>
-    <t>0.577+/-0.01</t>
-  </si>
-  <si>
-    <t>0.343</t>
-  </si>
-  <si>
-    <t>0.532+/-0.004</t>
-  </si>
-  <si>
-    <t>0.525+/-0.026</t>
-  </si>
-  <si>
-    <t>0.518</t>
-  </si>
-  <si>
-    <t>0.511+/-0.045</t>
-  </si>
-  <si>
-    <t>0.553+/-0.002</t>
-  </si>
-  <si>
-    <t>0.55+/-0.0</t>
-  </si>
-  <si>
-    <t>0.613</t>
-  </si>
-  <si>
-    <t>0.572+/-0.004</t>
-  </si>
-  <si>
-    <t>0.568+/-0.021</t>
-  </si>
-  <si>
-    <t>0.341</t>
-  </si>
-  <si>
-    <t>0.424+/-0.02</t>
-  </si>
-  <si>
-    <t>0.419+/-0.026</t>
-  </si>
-  <si>
-    <t>0.423</t>
-  </si>
-  <si>
-    <t>0.008+/-0.0</t>
-  </si>
-  <si>
-    <t>0.554+/-0.001</t>
-  </si>
-  <si>
-    <t>0.555+/-0.0</t>
-  </si>
-  <si>
-    <t>0.574</t>
-  </si>
-  <si>
-    <t>0.559+/-0.002</t>
-  </si>
-  <si>
-    <t>0.56+/-0.015</t>
-  </si>
-  <si>
-    <t>0.326</t>
-  </si>
-  <si>
-    <t>0.514+/-0.002</t>
-  </si>
-  <si>
-    <t>0.514+/-0.022</t>
-  </si>
-  <si>
-    <t>0.718+/-0.015</t>
-  </si>
-  <si>
-    <t>0.633+/-0.0</t>
-  </si>
-  <si>
-    <t>0.716+/-0.034</t>
-  </si>
-  <si>
-    <t>0.63+/-0.027</t>
-  </si>
-  <si>
-    <t>0.325</t>
-  </si>
-  <si>
-    <t>0.729+/-0.047</t>
-  </si>
-  <si>
-    <t>0.655+/-0.042</t>
-  </si>
-  <si>
-    <t>0.367</t>
-  </si>
-  <si>
-    <t>5.56+/-1.614</t>
-  </si>
-  <si>
-    <t>0.73+/-0.009</t>
-  </si>
-  <si>
-    <t>0.662+/-0.0</t>
-  </si>
-  <si>
-    <t>0.652</t>
-  </si>
-  <si>
-    <t>0.757+/-0.03</t>
-  </si>
-  <si>
-    <t>0.679+/-0.019</t>
-  </si>
-  <si>
-    <t>0.361</t>
-  </si>
-  <si>
-    <t>0.682+/-0.039</t>
-  </si>
-  <si>
-    <t>0.618+/-0.045</t>
-  </si>
-  <si>
-    <t>0.332</t>
-  </si>
-  <si>
-    <t>0.127+/-0.004</t>
-  </si>
-  <si>
-    <t>0.713+/-0.01</t>
-  </si>
-  <si>
-    <t>0.659+/-0.0</t>
-  </si>
-  <si>
-    <t>0.728+/-0.032</t>
-  </si>
-  <si>
-    <t>0.669+/-0.028</t>
-  </si>
-  <si>
-    <t>0.377</t>
-  </si>
-  <si>
-    <t>0.687+/-0.042</t>
-  </si>
-  <si>
-    <t>0.636+/-0.056</t>
-  </si>
-  <si>
-    <t>0.396</t>
-  </si>
-  <si>
-    <t>0.187+/-0.003</t>
-  </si>
-  <si>
-    <t>0.656+/-0.001</t>
-  </si>
-  <si>
-    <t>0.615+/-0.0</t>
-  </si>
-  <si>
-    <t>0.655+/-0.002</t>
-  </si>
-  <si>
-    <t>0.614+/-0.011</t>
-  </si>
-  <si>
-    <t>0.349</t>
-  </si>
-  <si>
-    <t>0.659+/-0.004</t>
-  </si>
-  <si>
-    <t>0.621+/-0.02</t>
-  </si>
-  <si>
-    <t>0.536</t>
-  </si>
-  <si>
-    <t>44.257+/-6.147</t>
-  </si>
-  <si>
-    <t>0.953+/-0.008</t>
-  </si>
-  <si>
-    <t>0.675+/-0.0</t>
-  </si>
-  <si>
-    <t>0.563</t>
-  </si>
-  <si>
-    <t>0.968+/-0.048</t>
-  </si>
-  <si>
-    <t>0.633+/-0.024</t>
-  </si>
-  <si>
-    <t>0.356</t>
-  </si>
-  <si>
-    <t>0.941+/-0.038</t>
-  </si>
-  <si>
-    <t>0.843+/-0.034</t>
-  </si>
-  <si>
-    <t>0.517</t>
-  </si>
-  <si>
-    <t>0.557+/-0.002</t>
-  </si>
-  <si>
-    <t>0.552+/-0.0</t>
-  </si>
-  <si>
-    <t>0.57</t>
-  </si>
-  <si>
-    <t>0.563+/-0.002</t>
-  </si>
-  <si>
-    <t>0.556+/-0.009</t>
-  </si>
-  <si>
-    <t>0.357</t>
-  </si>
-  <si>
-    <t>0.514+/-0.008</t>
-  </si>
-  <si>
-    <t>0.51+/-0.022</t>
-  </si>
-  <si>
-    <t>0.494</t>
-  </si>
-  <si>
-    <t>0.416+/-0.05</t>
-  </si>
-  <si>
-    <t>0.543+/-0.002</t>
-  </si>
-  <si>
-    <t>0.542+/-0.0</t>
-  </si>
-  <si>
-    <t>0.585</t>
-  </si>
-  <si>
-    <t>0.555+/-0.003</t>
-  </si>
-  <si>
-    <t>0.554+/-0.016</t>
-  </si>
-  <si>
-    <t>0.358</t>
-  </si>
-  <si>
-    <t>0.437+/-0.025</t>
-  </si>
-  <si>
-    <t>0.435+/-0.029</t>
-  </si>
-  <si>
-    <t>0.44</t>
-  </si>
-  <si>
-    <t>0.007+/-0.001</t>
-  </si>
-  <si>
-    <t>0.54+/-0.001</t>
-  </si>
-  <si>
-    <t>0.538+/-0.0</t>
-  </si>
-  <si>
-    <t>0.543+/-0.001</t>
-  </si>
-  <si>
-    <t>0.542+/-0.012</t>
-  </si>
-  <si>
-    <t>0.355</t>
-  </si>
-  <si>
-    <t>0.496+/-0.003</t>
-  </si>
-  <si>
-    <t>0.493+/-0.018</t>
-  </si>
-  <si>
-    <t>0.499</t>
-  </si>
-  <si>
-    <t>0.694+/-0.014</t>
-  </si>
-  <si>
-    <t>0.596+/-0.0</t>
-  </si>
-  <si>
-    <t>0.573</t>
-  </si>
-  <si>
-    <t>0.709+/-0.046</t>
-  </si>
-  <si>
-    <t>0.605+/-0.034</t>
-  </si>
-  <si>
-    <t>0.364</t>
-  </si>
-  <si>
-    <t>0.682+/-0.106</t>
-  </si>
-  <si>
-    <t>0.59+/-0.115</t>
-  </si>
-  <si>
-    <t>5.207+/-0.711</t>
-  </si>
-  <si>
-    <t>0.72+/-0.009</t>
-  </si>
-  <si>
-    <t>0.636+/-0.0</t>
-  </si>
-  <si>
-    <t>0.746+/-0.02</t>
-  </si>
-  <si>
-    <t>0.651+/-0.024</t>
-  </si>
-  <si>
-    <t>0.366</t>
-  </si>
-  <si>
-    <t>0.67+/-0.038</t>
-  </si>
-  <si>
-    <t>0.587+/-0.032</t>
-  </si>
-  <si>
-    <t>0.429</t>
-  </si>
-  <si>
-    <t>0.119+/-0.003</t>
-  </si>
-  <si>
-    <t>0.703+/-0.007</t>
-  </si>
-  <si>
-    <t>0.752+/-0.029</t>
+    <t>0.546+/-0.002</t>
+  </si>
+  <si>
+    <t>0.545+/-0.014</t>
+  </si>
+  <si>
+    <t>0.354</t>
+  </si>
+  <si>
+    <t>0.489+/-0.003</t>
+  </si>
+  <si>
+    <t>0.492</t>
+  </si>
+  <si>
+    <t>0.029+/-0.008</t>
+  </si>
+  <si>
+    <t>0.692+/-0.012</t>
+  </si>
+  <si>
+    <t>0.607+/-0.0</t>
+  </si>
+  <si>
+    <t>0.601</t>
+  </si>
+  <si>
+    <t>0.715+/-0.03</t>
+  </si>
+  <si>
+    <t>0.618+/-0.02</t>
+  </si>
+  <si>
+    <t>0.373</t>
+  </si>
+  <si>
+    <t>0.645+/-0.057</t>
+  </si>
+  <si>
+    <t>0.565+/-0.059</t>
+  </si>
+  <si>
+    <t>0.433</t>
+  </si>
+  <si>
+    <t>75.062+/-74.845</t>
+  </si>
+  <si>
+    <t>0.709+/-0.008</t>
+  </si>
+  <si>
+    <t>0.638+/-0.0</t>
+  </si>
+  <si>
+    <t>0.612</t>
+  </si>
+  <si>
+    <t>0.751+/-0.016</t>
   </si>
   <si>
     <t>0.667+/-0.023</t>
   </si>
   <si>
-    <t>0.365</t>
-  </si>
-  <si>
-    <t>0.609+/-0.046</t>
-  </si>
-  <si>
-    <t>0.546+/-0.055</t>
-  </si>
-  <si>
-    <t>0.379</t>
-  </si>
-  <si>
-    <t>0.167+/-0.003</t>
-  </si>
-  <si>
-    <t>0.642+/-0.003</t>
-  </si>
-  <si>
-    <t>0.581</t>
-  </si>
-  <si>
-    <t>0.636+/-0.004</t>
-  </si>
-  <si>
-    <t>0.589+/-0.019</t>
-  </si>
-  <si>
-    <t>0.663+/-0.008</t>
-  </si>
-  <si>
-    <t>0.618+/-0.025</t>
-  </si>
-  <si>
-    <t>0.553</t>
-  </si>
-  <si>
-    <t>40.434+/-4.817</t>
+    <t>0.374</t>
+  </si>
+  <si>
+    <t>0.626+/-0.036</t>
+  </si>
+  <si>
+    <t>0.555+/-0.032</t>
+  </si>
+  <si>
+    <t>0.384</t>
+  </si>
+  <si>
+    <t>0.126+/-0.002</t>
+  </si>
+  <si>
+    <t>0.697+/-0.009</t>
+  </si>
+  <si>
+    <t>0.632</t>
+  </si>
+  <si>
+    <t>0.757+/-0.022</t>
+  </si>
+  <si>
+    <t>0.681+/-0.029</t>
+  </si>
+  <si>
+    <t>0.39</t>
+  </si>
+  <si>
+    <t>0.582+/-0.035</t>
+  </si>
+  <si>
+    <t>0.525+/-0.041</t>
+  </si>
+  <si>
+    <t>0.186+/-0.003</t>
+  </si>
+  <si>
+    <t>0.639+/-0.003</t>
+  </si>
+  <si>
+    <t>0.594+/-0.0</t>
+  </si>
+  <si>
+    <t>0.636+/-0.002</t>
+  </si>
+  <si>
+    <t>0.591+/-0.011</t>
+  </si>
+  <si>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>0.65+/-0.011</t>
+  </si>
+  <si>
+    <t>0.61+/-0.016</t>
+  </si>
+  <si>
+    <t>0.545</t>
+  </si>
+  <si>
+    <t>50.282+/-2.761</t>
   </si>
 </sst>
 </file>
@@ -1374,28 +1422,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J2">
-        <v>0.5</v>
+        <v>85</v>
+      </c>
+      <c r="J2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1403,31 +1451,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s">
-        <v>89</v>
-      </c>
-      <c r="J3">
-        <v>0.5</v>
+        <v>86</v>
+      </c>
+      <c r="J3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1435,31 +1483,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J4">
-        <v>0.7983870967741935</v>
+        <v>87</v>
+      </c>
+      <c r="J4" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1467,31 +1515,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I5" t="s">
-        <v>91</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="J5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1499,31 +1547,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s">
-        <v>92</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="J6" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1531,31 +1579,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1563,31 +1611,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1595,31 +1643,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1627,31 +1675,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I10" t="s">
-        <v>96</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1659,31 +1707,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I11" t="s">
-        <v>97</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>94</v>
+      </c>
+      <c r="J11" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1733,16 +1781,16 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F2" t="s">
         <v>135</v>
@@ -1756,8 +1804,8 @@
       <c r="I2" t="s">
         <v>164</v>
       </c>
-      <c r="J2">
-        <v>0.5</v>
+      <c r="J2" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1765,16 +1813,16 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F3" t="s">
         <v>136</v>
@@ -1788,8 +1836,8 @@
       <c r="I3" t="s">
         <v>165</v>
       </c>
-      <c r="J3">
-        <v>0.5</v>
+      <c r="J3" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1797,16 +1845,16 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F4" t="s">
         <v>137</v>
@@ -1820,8 +1868,8 @@
       <c r="I4" t="s">
         <v>166</v>
       </c>
-      <c r="J4">
-        <v>0.85</v>
+      <c r="J4" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1829,16 +1877,16 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F5" t="s">
         <v>138</v>
@@ -1852,8 +1900,8 @@
       <c r="I5" t="s">
         <v>167</v>
       </c>
-      <c r="J5">
-        <v>0</v>
+      <c r="J5" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1861,16 +1909,16 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F6" t="s">
         <v>139</v>
@@ -1884,8 +1932,8 @@
       <c r="I6" t="s">
         <v>168</v>
       </c>
-      <c r="J6">
-        <v>0</v>
+      <c r="J6" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1893,19 +1941,19 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="G7" t="s">
         <v>149</v>
@@ -1916,8 +1964,8 @@
       <c r="I7" t="s">
         <v>169</v>
       </c>
-      <c r="J7">
-        <v>0</v>
+      <c r="J7" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1925,19 +1973,19 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G8" t="s">
         <v>150</v>
@@ -1948,8 +1996,8 @@
       <c r="I8" t="s">
         <v>170</v>
       </c>
-      <c r="J8">
-        <v>0</v>
+      <c r="J8" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1957,19 +2005,19 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G9" t="s">
         <v>151</v>
@@ -1980,8 +2028,8 @@
       <c r="I9" t="s">
         <v>171</v>
       </c>
-      <c r="J9">
-        <v>0</v>
+      <c r="J9" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1989,19 +2037,19 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="F10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G10" t="s">
         <v>152</v>
@@ -2012,8 +2060,8 @@
       <c r="I10" t="s">
         <v>172</v>
       </c>
-      <c r="J10">
-        <v>0</v>
+      <c r="J10" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2021,19 +2069,19 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E11" t="s">
         <v>134</v>
       </c>
       <c r="F11" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="G11" t="s">
         <v>153</v>
@@ -2044,8 +2092,8 @@
       <c r="I11" t="s">
         <v>173</v>
       </c>
-      <c r="J11">
-        <v>0</v>
+      <c r="J11" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2095,31 +2143,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>174</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I2" t="s">
-        <v>239</v>
-      </c>
-      <c r="J2">
-        <v>0.5</v>
+        <v>241</v>
+      </c>
+      <c r="J2" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2127,31 +2175,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>175</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E3" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F3" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="I3" t="s">
-        <v>240</v>
-      </c>
-      <c r="J3">
-        <v>0.5</v>
+        <v>242</v>
+      </c>
+      <c r="J3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2159,31 +2207,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C4" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F4" t="s">
-        <v>195</v>
+        <v>107</v>
       </c>
       <c r="G4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H4" t="s">
-        <v>222</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s">
-        <v>96</v>
-      </c>
-      <c r="J4">
-        <v>0.7231182795698925</v>
+        <v>243</v>
+      </c>
+      <c r="J4" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2191,31 +2239,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C5" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E5" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F5" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G5" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H5" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I5" t="s">
-        <v>241</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>244</v>
+      </c>
+      <c r="J5" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2223,31 +2271,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C6" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D6" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E6" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F6" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H6" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I6" t="s">
-        <v>242</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>245</v>
+      </c>
+      <c r="J6" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2255,31 +2303,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>179</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F7" t="s">
-        <v>215</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="I7" t="s">
-        <v>243</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>246</v>
+      </c>
+      <c r="J7" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2287,31 +2335,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C8" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D8" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G8" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="I8" t="s">
-        <v>244</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+        <v>247</v>
+      </c>
+      <c r="J8" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2319,31 +2367,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C9" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D9" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E9" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F9" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G9" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H9" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I9" t="s">
-        <v>245</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>248</v>
+      </c>
+      <c r="J9" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2351,31 +2399,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>182</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D10" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E10" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="F10" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="G10" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H10" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I10" t="s">
-        <v>246</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>249</v>
+      </c>
+      <c r="J10" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2383,31 +2431,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>192</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>215</v>
       </c>
       <c r="F11" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G11" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H11" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I11" t="s">
-        <v>247</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>250</v>
+      </c>
+      <c r="J11" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -2457,31 +2505,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>248</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H2" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="I2" t="s">
-        <v>311</v>
-      </c>
-      <c r="J2">
-        <v>0.5</v>
+        <v>318</v>
+      </c>
+      <c r="J2" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2489,31 +2537,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>249</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D3" t="s">
-        <v>268</v>
+        <v>207</v>
       </c>
       <c r="E3" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F3" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G3" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="H3" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3">
-        <v>0.5</v>
+        <v>309</v>
+      </c>
+      <c r="J3" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2521,31 +2569,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="C4" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="D4" t="s">
-        <v>269</v>
+        <v>182</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>282</v>
       </c>
       <c r="F4" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
+        <v>300</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="I4" t="s">
-        <v>312</v>
-      </c>
-      <c r="J4">
-        <v>0.6919354838709677</v>
+        <v>319</v>
+      </c>
+      <c r="J4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2553,31 +2601,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="C5" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="D5" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E5" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F5" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G5" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="H5" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="I5" t="s">
-        <v>313</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>320</v>
+      </c>
+      <c r="J5" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2585,31 +2633,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="C6" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="D6" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E6" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G6" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="H6" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="I6" t="s">
-        <v>314</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>321</v>
+      </c>
+      <c r="J6" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2617,31 +2665,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>253</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="D7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="H7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="I7" t="s">
-        <v>234</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>322</v>
+      </c>
+      <c r="J7" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2649,31 +2697,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="C8" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="D8" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E8" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F8" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="G8" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="H8" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="I8" t="s">
-        <v>315</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+        <v>323</v>
+      </c>
+      <c r="J8" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2681,31 +2729,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C9" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="D9" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E9" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F9" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="G9" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="H9" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="I9" t="s">
-        <v>316</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>324</v>
+      </c>
+      <c r="J9" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2713,31 +2761,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" t="s">
+        <v>296</v>
+      </c>
+      <c r="G10" t="s">
+        <v>306</v>
+      </c>
+      <c r="H10" t="s">
+        <v>316</v>
+      </c>
+      <c r="I10" t="s">
         <v>256</v>
       </c>
-      <c r="C10" t="s">
-        <v>265</v>
-      </c>
-      <c r="D10" t="s">
-        <v>275</v>
-      </c>
-      <c r="E10" t="s">
-        <v>284</v>
-      </c>
-      <c r="F10" t="s">
-        <v>256</v>
-      </c>
-      <c r="G10" t="s">
-        <v>301</v>
-      </c>
-      <c r="H10" t="s">
-        <v>309</v>
-      </c>
-      <c r="I10" t="s">
-        <v>317</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+      <c r="J10" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2745,31 +2793,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>266</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>288</v>
       </c>
       <c r="F11" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G11" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="H11" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="I11" t="s">
-        <v>318</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>325</v>
+      </c>
+      <c r="J11" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_10_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_10_1_replicas_SMOTE.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="338">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -94,934 +94,943 @@
     <t>0.001+/-0.0</t>
   </si>
   <si>
-    <t>0.946+/-0.021</t>
-  </si>
-  <si>
-    <t>0.743+/-0.0</t>
+    <t>0.947+/-0.021</t>
+  </si>
+  <si>
+    <t>0.759+/-0.0</t>
+  </si>
+  <si>
+    <t>0.624</t>
+  </si>
+  <si>
+    <t>0.937+/-0.032</t>
+  </si>
+  <si>
+    <t>0.691+/-0.008</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>0.962+/-0.075</t>
+  </si>
+  <si>
+    <t>0.937+/-0.081</t>
+  </si>
+  <si>
+    <t>0.469</t>
+  </si>
+  <si>
+    <t>0.002+/-0.0</t>
+  </si>
+  <si>
+    <t>0.626+/-0.001</t>
+  </si>
+  <si>
+    <t>0.623+/-0.0</t>
+  </si>
+  <si>
+    <t>0.538</t>
+  </si>
+  <si>
+    <t>0.61+/-0.002</t>
+  </si>
+  <si>
+    <t>0.607+/-0.008</t>
+  </si>
+  <si>
+    <t>0.246</t>
+  </si>
+  <si>
+    <t>0.701+/-0.003</t>
+  </si>
+  <si>
+    <t>0.697+/-0.017</t>
+  </si>
+  <si>
+    <t>0.627</t>
+  </si>
+  <si>
+    <t>0.632+/-0.018</t>
+  </si>
+  <si>
+    <t>0.551+/-0.001</t>
+  </si>
+  <si>
+    <t>0.552+/-0.0</t>
+  </si>
+  <si>
+    <t>0.331</t>
+  </si>
+  <si>
+    <t>0.53+/-0.001</t>
+  </si>
+  <si>
+    <t>0.531+/-0.005</t>
+  </si>
+  <si>
+    <t>0.213</t>
+  </si>
+  <si>
+    <t>0.895+/-0.003</t>
+  </si>
+  <si>
+    <t>0.896+/-0.009</t>
+  </si>
+  <si>
+    <t>0.859</t>
+  </si>
+  <si>
+    <t>0.006+/-0.001</t>
+  </si>
+  <si>
+    <t>0.599+/-0.002</t>
+  </si>
+  <si>
+    <t>0.599+/-0.0</t>
+  </si>
+  <si>
+    <t>0.503</t>
+  </si>
+  <si>
+    <t>0.585+/-0.001</t>
+  </si>
+  <si>
+    <t>0.584+/-0.01</t>
+  </si>
+  <si>
+    <t>0.219</t>
+  </si>
+  <si>
+    <t>0.682+/-0.003</t>
+  </si>
+  <si>
+    <t>0.682+/-0.02</t>
+  </si>
+  <si>
+    <t>0.571</t>
+  </si>
+  <si>
+    <t>0.008+/-0.001</t>
+  </si>
+  <si>
+    <t>0.778+/-0.008</t>
+  </si>
+  <si>
+    <t>0.722+/-0.0</t>
+  </si>
+  <si>
+    <t>0.583</t>
+  </si>
+  <si>
+    <t>0.738+/-0.016</t>
+  </si>
+  <si>
+    <t>0.687+/-0.015</t>
+  </si>
+  <si>
+    <t>0.864+/-0.023</t>
+  </si>
+  <si>
+    <t>0.815+/-0.026</t>
   </si>
   <si>
     <t>0.579</t>
   </si>
   <si>
-    <t>0.937+/-0.031</t>
-  </si>
-  <si>
-    <t>0.688+/-0.004</t>
-  </si>
-  <si>
-    <t>0.268</t>
-  </si>
-  <si>
-    <t>0.961+/-0.076</t>
-  </si>
-  <si>
-    <t>0.888+/-0.1</t>
-  </si>
-  <si>
-    <t>0.627</t>
-  </si>
-  <si>
-    <t>0.004+/-0.0</t>
-  </si>
-  <si>
-    <t>0.631+/-0.002</t>
-  </si>
-  <si>
-    <t>0.629+/-0.0</t>
+    <t>4.327+/-0.553</t>
+  </si>
+  <si>
+    <t>0.795+/-0.006</t>
+  </si>
+  <si>
+    <t>0.728+/-0.0</t>
+  </si>
+  <si>
+    <t>0.634</t>
+  </si>
+  <si>
+    <t>0.79+/-0.023</t>
+  </si>
+  <si>
+    <t>0.724+/-0.028</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.807+/-0.045</t>
+  </si>
+  <si>
+    <t>0.742+/-0.057</t>
+  </si>
+  <si>
+    <t>0.408</t>
+  </si>
+  <si>
+    <t>0.096+/-0.008</t>
+  </si>
+  <si>
+    <t>0.773+/-0.006</t>
+  </si>
+  <si>
+    <t>0.612</t>
+  </si>
+  <si>
+    <t>0.764+/-0.027</t>
+  </si>
+  <si>
+    <t>0.715+/-0.03</t>
+  </si>
+  <si>
+    <t>0.247</t>
+  </si>
+  <si>
+    <t>0.793+/-0.046</t>
+  </si>
+  <si>
+    <t>0.743+/-0.059</t>
+  </si>
+  <si>
+    <t>0.451</t>
+  </si>
+  <si>
+    <t>0.132+/-0.006</t>
+  </si>
+  <si>
+    <t>0.704+/-0.003</t>
+  </si>
+  <si>
+    <t>0.682+/-0.0</t>
+  </si>
+  <si>
+    <t>0.592</t>
+  </si>
+  <si>
+    <t>0.677+/-0.003</t>
+  </si>
+  <si>
+    <t>0.658+/-0.009</t>
+  </si>
+  <si>
+    <t>0.269</t>
+  </si>
+  <si>
+    <t>0.782+/-0.006</t>
+  </si>
+  <si>
+    <t>0.76+/-0.015</t>
+  </si>
+  <si>
+    <t>0.595</t>
+  </si>
+  <si>
+    <t>37.951+/-2.388</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.95+/-0.019</t>
+  </si>
+  <si>
+    <t>0.782+/-0.0</t>
+  </si>
+  <si>
+    <t>0.587</t>
+  </si>
+  <si>
+    <t>0.927+/-0.024</t>
+  </si>
+  <si>
+    <t>0.706+/-0.013</t>
+  </si>
+  <si>
+    <t>0.198</t>
+  </si>
+  <si>
+    <t>0.978+/-0.064</t>
+  </si>
+  <si>
+    <t>0.966+/-0.068</t>
+  </si>
+  <si>
+    <t>0.573</t>
+  </si>
+  <si>
+    <t>0.648+/-0.001</t>
+  </si>
+  <si>
+    <t>0.647+/-0.0</t>
+  </si>
+  <si>
+    <t>0.634+/-0.001</t>
+  </si>
+  <si>
+    <t>0.633+/-0.008</t>
+  </si>
+  <si>
+    <t>0.194</t>
+  </si>
+  <si>
+    <t>0.702+/-0.002</t>
+  </si>
+  <si>
+    <t>0.7+/-0.016</t>
+  </si>
+  <si>
+    <t>0.591</t>
+  </si>
+  <si>
+    <t>0.602+/-0.05</t>
+  </si>
+  <si>
+    <t>0.573+/-0.002</t>
+  </si>
+  <si>
+    <t>0.572+/-0.0</t>
+  </si>
+  <si>
+    <t>0.373</t>
+  </si>
+  <si>
+    <t>0.548+/-0.001</t>
+  </si>
+  <si>
+    <t>0.547+/-0.008</t>
+  </si>
+  <si>
+    <t>0.164</t>
+  </si>
+  <si>
+    <t>0.842+/-0.002</t>
+  </si>
+  <si>
+    <t>0.842+/-0.017</t>
+  </si>
+  <si>
+    <t>0.778</t>
+  </si>
+  <si>
+    <t>0.607+/-0.001</t>
+  </si>
+  <si>
+    <t>0.606+/-0.0</t>
+  </si>
+  <si>
+    <t>0.501</t>
+  </si>
+  <si>
+    <t>0.589+/-0.001</t>
+  </si>
+  <si>
+    <t>0.588+/-0.01</t>
+  </si>
+  <si>
+    <t>0.172</t>
+  </si>
+  <si>
+    <t>0.707+/-0.003</t>
+  </si>
+  <si>
+    <t>0.706+/-0.022</t>
+  </si>
+  <si>
+    <t>0.609</t>
+  </si>
+  <si>
+    <t>0.007+/-0.0</t>
+  </si>
+  <si>
+    <t>0.801+/-0.008</t>
+  </si>
+  <si>
+    <t>0.752+/-0.0</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>0.754+/-0.01</t>
+  </si>
+  <si>
+    <t>0.71+/-0.013</t>
+  </si>
+  <si>
+    <t>0.215</t>
+  </si>
+  <si>
+    <t>0.893+/-0.019</t>
+  </si>
+  <si>
+    <t>0.855+/-0.027</t>
+  </si>
+  <si>
+    <t>0.527</t>
+  </si>
+  <si>
+    <t>4.557+/-0.621</t>
+  </si>
+  <si>
+    <t>0.802+/-0.01</t>
+  </si>
+  <si>
+    <t>0.754+/-0.0</t>
+  </si>
+  <si>
+    <t>0.674</t>
+  </si>
+  <si>
+    <t>0.793+/-0.014</t>
+  </si>
+  <si>
+    <t>0.745+/-0.017</t>
+  </si>
+  <si>
+    <t>0.819+/-0.027</t>
+  </si>
+  <si>
+    <t>0.775+/-0.03</t>
+  </si>
+  <si>
+    <t>0.434</t>
+  </si>
+  <si>
+    <t>0.108+/-0.008</t>
+  </si>
+  <si>
+    <t>0.792+/-0.009</t>
+  </si>
+  <si>
+    <t>0.748+/-0.0</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>0.785+/-0.016</t>
+  </si>
+  <si>
+    <t>0.739+/-0.018</t>
+  </si>
+  <si>
+    <t>0.226</t>
+  </si>
+  <si>
+    <t>0.805+/-0.025</t>
+  </si>
+  <si>
+    <t>0.767+/-0.029</t>
+  </si>
+  <si>
+    <t>0.441</t>
+  </si>
+  <si>
+    <t>0.142+/-0.006</t>
+  </si>
+  <si>
+    <t>0.712+/-0.002</t>
+  </si>
+  <si>
+    <t>0.697+/-0.0</t>
+  </si>
+  <si>
+    <t>0.616</t>
+  </si>
+  <si>
+    <t>0.689+/-0.002</t>
+  </si>
+  <si>
+    <t>0.676+/-0.009</t>
+  </si>
+  <si>
+    <t>0.211</t>
+  </si>
+  <si>
+    <t>0.773+/-0.004</t>
+  </si>
+  <si>
+    <t>0.758+/-0.021</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>41.361+/-3.781</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.15+/-0.229</t>
+  </si>
+  <si>
+    <t>0.3+/-0.458</t>
+  </si>
+  <si>
+    <t>0.956+/-0.005</t>
+  </si>
+  <si>
+    <t>0.699+/-0.0</t>
+  </si>
+  <si>
+    <t>0.575</t>
+  </si>
+  <si>
+    <t>0.99+/-0.031</t>
+  </si>
+  <si>
+    <t>0.654+/-0.017</t>
+  </si>
+  <si>
+    <t>0.325</t>
+  </si>
+  <si>
+    <t>0.924+/-0.025</t>
+  </si>
+  <si>
+    <t>0.847+/-0.028</t>
+  </si>
+  <si>
+    <t>0.497</t>
+  </si>
+  <si>
+    <t>0.568+/-0.002</t>
+  </si>
+  <si>
+    <t>0.564+/-0.0</t>
+  </si>
+  <si>
+    <t>0.597</t>
+  </si>
+  <si>
+    <t>0.578+/-0.002</t>
+  </si>
+  <si>
+    <t>0.574+/-0.012</t>
+  </si>
+  <si>
+    <t>0.342</t>
+  </si>
+  <si>
+    <t>0.503+/-0.006</t>
+  </si>
+  <si>
+    <t>0.498+/-0.023</t>
+  </si>
+  <si>
+    <t>0.493</t>
+  </si>
+  <si>
+    <t>0.291+/-0.091</t>
+  </si>
+  <si>
+    <t>0.549+/-0.002</t>
+  </si>
+  <si>
+    <t>0.546+/-0.0</t>
+  </si>
+  <si>
+    <t>0.619</t>
+  </si>
+  <si>
+    <t>0.573+/-0.003</t>
+  </si>
+  <si>
+    <t>0.569+/-0.022</t>
+  </si>
+  <si>
+    <t>0.338</t>
+  </si>
+  <si>
+    <t>0.387+/-0.019</t>
+  </si>
+  <si>
+    <t>0.383+/-0.024</t>
+  </si>
+  <si>
+    <t>0.39</t>
+  </si>
+  <si>
+    <t>0.548+/-0.002</t>
+  </si>
+  <si>
+    <t>0.547+/-0.0</t>
+  </si>
+  <si>
+    <t>0.577</t>
+  </si>
+  <si>
+    <t>0.554+/-0.002</t>
+  </si>
+  <si>
+    <t>0.553+/-0.016</t>
+  </si>
+  <si>
+    <t>0.492+/-0.003</t>
+  </si>
+  <si>
+    <t>0.491+/-0.021</t>
+  </si>
+  <si>
+    <t>0.489</t>
+  </si>
+  <si>
+    <t>0.007+/-0.001</t>
+  </si>
+  <si>
+    <t>0.71+/-0.006</t>
+  </si>
+  <si>
+    <t>0.634+/-0.0</t>
+  </si>
+  <si>
+    <t>0.615</t>
+  </si>
+  <si>
+    <t>0.726+/-0.019</t>
+  </si>
+  <si>
+    <t>0.642+/-0.019</t>
+  </si>
+  <si>
+    <t>0.334</t>
+  </si>
+  <si>
+    <t>0.679+/-0.043</t>
+  </si>
+  <si>
+    <t>0.608+/-0.039</t>
+  </si>
+  <si>
+    <t>0.396</t>
+  </si>
+  <si>
+    <t>4.247+/-0.858</t>
+  </si>
+  <si>
+    <t>0.721+/-0.003</t>
+  </si>
+  <si>
+    <t>0.653+/-0.0</t>
+  </si>
+  <si>
+    <t>0.606</t>
+  </si>
+  <si>
+    <t>0.762+/-0.03</t>
+  </si>
+  <si>
+    <t>0.68+/-0.014</t>
+  </si>
+  <si>
+    <t>0.346</t>
+  </si>
+  <si>
+    <t>0.649+/-0.043</t>
+  </si>
+  <si>
+    <t>0.582+/-0.053</t>
+  </si>
+  <si>
+    <t>0.476</t>
+  </si>
+  <si>
+    <t>0.103+/-0.009</t>
+  </si>
+  <si>
+    <t>0.71+/-0.004</t>
+  </si>
+  <si>
+    <t>0.608</t>
+  </si>
+  <si>
+    <t>0.758+/-0.036</t>
+  </si>
+  <si>
+    <t>0.687+/-0.021</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>0.624+/-0.051</t>
+  </si>
+  <si>
+    <t>0.568+/-0.06</t>
+  </si>
+  <si>
+    <t>0.483</t>
+  </si>
+  <si>
+    <t>0.138+/-0.009</t>
+  </si>
+  <si>
+    <t>0.651+/-0.003</t>
+  </si>
+  <si>
+    <t>0.604+/-0.0</t>
+  </si>
+  <si>
+    <t>0.622</t>
+  </si>
+  <si>
+    <t>0.663+/-0.004</t>
+  </si>
+  <si>
+    <t>0.611+/-0.017</t>
+  </si>
+  <si>
+    <t>0.365</t>
+  </si>
+  <si>
+    <t>0.617+/-0.013</t>
+  </si>
+  <si>
+    <t>0.575+/-0.014</t>
+  </si>
+  <si>
+    <t>0.495</t>
+  </si>
+  <si>
+    <t>32.452+/-1.104</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.25+/-0.25</t>
+  </si>
+  <si>
+    <t>0.5+/-0.5</t>
+  </si>
+  <si>
+    <t>0.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.958+/-0.006</t>
+  </si>
+  <si>
+    <t>0.688+/-0.0</t>
   </si>
   <si>
     <t>0.547</t>
   </si>
   <si>
-    <t>0.614+/-0.001</t>
-  </si>
-  <si>
-    <t>0.613+/-0.01</t>
-  </si>
-  <si>
-    <t>0.252</t>
-  </si>
-  <si>
-    <t>0.705+/-0.005</t>
-  </si>
-  <si>
-    <t>0.702+/-0.021</t>
-  </si>
-  <si>
-    <t>0.635</t>
-  </si>
-  <si>
-    <t>1.047+/-0.176</t>
-  </si>
-  <si>
-    <t>0.553+/-0.001</t>
-  </si>
-  <si>
-    <t>0.551+/-0.0</t>
-  </si>
-  <si>
-    <t>0.324</t>
-  </si>
-  <si>
-    <t>0.531+/-0.001</t>
-  </si>
-  <si>
-    <t>0.53+/-0.005</t>
-  </si>
-  <si>
-    <t>0.213</t>
-  </si>
-  <si>
-    <t>0.911+/-0.004</t>
-  </si>
-  <si>
-    <t>0.911+/-0.009</t>
-  </si>
-  <si>
-    <t>0.875</t>
-  </si>
-  <si>
-    <t>0.011+/-0.001</t>
-  </si>
-  <si>
-    <t>0.597+/-0.002</t>
+    <t>0.989+/-0.032</t>
+  </si>
+  <si>
+    <t>0.649+/-0.016</t>
+  </si>
+  <si>
+    <t>0.333</t>
+  </si>
+  <si>
+    <t>0.928+/-0.024</t>
+  </si>
+  <si>
+    <t>0.824+/-0.024</t>
+  </si>
+  <si>
+    <t>0.471</t>
+  </si>
+  <si>
+    <t>0.556+/-0.002</t>
+  </si>
+  <si>
+    <t>0.549+/-0.0</t>
+  </si>
+  <si>
+    <t>0.574</t>
+  </si>
+  <si>
+    <t>0.561+/-0.003</t>
+  </si>
+  <si>
+    <t>0.554+/-0.016</t>
+  </si>
+  <si>
+    <t>0.362</t>
+  </si>
+  <si>
+    <t>0.508+/-0.009</t>
+  </si>
+  <si>
+    <t>0.501+/-0.023</t>
+  </si>
+  <si>
+    <t>0.499</t>
+  </si>
+  <si>
+    <t>0.225+/-0.073</t>
+  </si>
+  <si>
+    <t>0.54+/-0.004</t>
+  </si>
+  <si>
+    <t>0.54+/-0.0</t>
+  </si>
+  <si>
+    <t>0.566+/-0.004</t>
+  </si>
+  <si>
+    <t>0.565+/-0.028</t>
+  </si>
+  <si>
+    <t>0.375</t>
+  </si>
+  <si>
+    <t>0.341+/-0.021</t>
+  </si>
+  <si>
+    <t>0.344+/-0.039</t>
+  </si>
+  <si>
+    <t>0.354</t>
+  </si>
+  <si>
+    <t>0.005+/-0.001</t>
+  </si>
+  <si>
+    <t>0.544+/-0.002</t>
+  </si>
+  <si>
+    <t>0.543+/-0.0</t>
+  </si>
+  <si>
+    <t>0.568</t>
+  </si>
+  <si>
+    <t>0.55+/-0.002</t>
+  </si>
+  <si>
+    <t>0.549+/-0.019</t>
+  </si>
+  <si>
+    <t>0.351</t>
+  </si>
+  <si>
+    <t>0.483+/-0.002</t>
+  </si>
+  <si>
+    <t>0.482+/-0.023</t>
+  </si>
+  <si>
+    <t>0.475</t>
+  </si>
+  <si>
+    <t>0.699+/-0.013</t>
+  </si>
+  <si>
+    <t>0.61+/-0.0</t>
+  </si>
+  <si>
+    <t>0.611</t>
+  </si>
+  <si>
+    <t>0.72+/-0.026</t>
+  </si>
+  <si>
+    <t>0.618+/-0.011</t>
+  </si>
+  <si>
+    <t>0.374</t>
+  </si>
+  <si>
+    <t>0.656+/-0.057</t>
+  </si>
+  <si>
+    <t>0.579+/-0.063</t>
+  </si>
+  <si>
+    <t>0.387</t>
+  </si>
+  <si>
+    <t>4.318+/-0.735</t>
+  </si>
+  <si>
+    <t>0.724+/-0.008</t>
+  </si>
+  <si>
+    <t>0.644+/-0.0</t>
+  </si>
+  <si>
+    <t>0.63</t>
+  </si>
+  <si>
+    <t>0.791+/-0.02</t>
+  </si>
+  <si>
+    <t>0.687+/-0.018</t>
+  </si>
+  <si>
+    <t>0.377</t>
+  </si>
+  <si>
+    <t>0.61+/-0.029</t>
+  </si>
+  <si>
+    <t>0.531+/-0.039</t>
+  </si>
+  <si>
+    <t>0.311</t>
+  </si>
+  <si>
+    <t>0.085+/-0.008</t>
+  </si>
+  <si>
+    <t>0.706+/-0.008</t>
+  </si>
+  <si>
+    <t>0.64+/-0.0</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>0.773+/-0.028</t>
+  </si>
+  <si>
+    <t>0.687+/-0.029</t>
+  </si>
+  <si>
+    <t>0.589+/-0.043</t>
+  </si>
+  <si>
+    <t>0.519+/-0.051</t>
+  </si>
+  <si>
+    <t>0.391</t>
+  </si>
+  <si>
+    <t>0.114+/-0.006</t>
+  </si>
+  <si>
+    <t>0.639+/-0.002</t>
   </si>
   <si>
     <t>0.597+/-0.0</t>
   </si>
   <si>
-    <t>0.501</t>
-  </si>
-  <si>
-    <t>0.583+/-0.001</t>
-  </si>
-  <si>
-    <t>0.583+/-0.011</t>
-  </si>
-  <si>
-    <t>0.218</t>
-  </si>
-  <si>
-    <t>0.678+/-0.002</t>
-  </si>
-  <si>
-    <t>0.678+/-0.017</t>
-  </si>
-  <si>
-    <t>0.568</t>
-  </si>
-  <si>
-    <t>0.012+/-0.001</t>
-  </si>
-  <si>
-    <t>0.781+/-0.009</t>
-  </si>
-  <si>
-    <t>0.726+/-0.0</t>
-  </si>
-  <si>
-    <t>0.615</t>
-  </si>
-  <si>
-    <t>0.741+/-0.01</t>
-  </si>
-  <si>
-    <t>0.689+/-0.016</t>
-  </si>
-  <si>
-    <t>0.263</t>
-  </si>
-  <si>
-    <t>0.864+/-0.03</t>
-  </si>
-  <si>
-    <t>0.825+/-0.024</t>
-  </si>
-  <si>
-    <t>0.507</t>
-  </si>
-  <si>
-    <t>19.126+/-5.376</t>
-  </si>
-  <si>
-    <t>0.807+/-0.006</t>
-  </si>
-  <si>
-    <t>0.744+/-0.0</t>
-  </si>
-  <si>
-    <t>0.631</t>
-  </si>
-  <si>
-    <t>0.782+/-0.016</t>
-  </si>
-  <si>
-    <t>0.722+/-0.014</t>
-  </si>
-  <si>
-    <t>0.269</t>
-  </si>
-  <si>
-    <t>0.853+/-0.021</t>
-  </si>
-  <si>
-    <t>0.795+/-0.02</t>
-  </si>
-  <si>
-    <t>0.485</t>
-  </si>
-  <si>
-    <t>0.146+/-0.006</t>
-  </si>
-  <si>
-    <t>0.783+/-0.009</t>
-  </si>
-  <si>
-    <t>0.731+/-0.0</t>
-  </si>
-  <si>
-    <t>0.642</t>
-  </si>
-  <si>
-    <t>0.763+/-0.017</t>
-  </si>
-  <si>
-    <t>0.711+/-0.018</t>
-  </si>
-  <si>
-    <t>0.287</t>
-  </si>
-  <si>
-    <t>0.823+/-0.041</t>
-  </si>
-  <si>
-    <t>0.78+/-0.03</t>
-  </si>
-  <si>
-    <t>0.523</t>
-  </si>
-  <si>
-    <t>0.223+/-0.027</t>
-  </si>
-  <si>
-    <t>0.698+/-0.003</t>
-  </si>
-  <si>
-    <t>0.679+/-0.0</t>
-  </si>
-  <si>
-    <t>0.594</t>
-  </si>
-  <si>
-    <t>0.674+/-0.003</t>
-  </si>
-  <si>
-    <t>0.658+/-0.008</t>
-  </si>
-  <si>
-    <t>0.767+/-0.005</t>
-  </si>
-  <si>
-    <t>0.747+/-0.024</t>
-  </si>
-  <si>
-    <t>0.592</t>
-  </si>
-  <si>
-    <t>80.149+/-3.113</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.944+/-0.024</t>
-  </si>
-  <si>
-    <t>0.774+/-0.0</t>
-  </si>
-  <si>
-    <t>0.574</t>
-  </si>
-  <si>
-    <t>0.935+/-0.032</t>
-  </si>
-  <si>
-    <t>0.704+/-0.011</t>
-  </si>
-  <si>
-    <t>0.197</t>
-  </si>
-  <si>
-    <t>0.958+/-0.083</t>
-  </si>
-  <si>
-    <t>0.945+/-0.085</t>
-  </si>
-  <si>
-    <t>0.599</t>
-  </si>
-  <si>
-    <t>0.003+/-0.0</t>
-  </si>
-  <si>
-    <t>0.649+/-0.001</t>
-  </si>
-  <si>
-    <t>0.647+/-0.0</t>
-  </si>
-  <si>
-    <t>0.572</t>
-  </si>
-  <si>
-    <t>0.636+/-0.001</t>
-  </si>
-  <si>
-    <t>0.635+/-0.013</t>
-  </si>
-  <si>
-    <t>0.19</t>
-  </si>
-  <si>
-    <t>0.693+/-0.004</t>
-  </si>
-  <si>
-    <t>0.69+/-0.013</t>
-  </si>
-  <si>
-    <t>0.566</t>
-  </si>
-  <si>
-    <t>0.986+/-0.083</t>
-  </si>
-  <si>
-    <t>0.571+/-0.002</t>
-  </si>
-  <si>
-    <t>0.571+/-0.0</t>
-  </si>
-  <si>
-    <t>0.375</t>
-  </si>
-  <si>
-    <t>0.547+/-0.002</t>
-  </si>
-  <si>
-    <t>0.547+/-0.007</t>
-  </si>
-  <si>
-    <t>0.165</t>
-  </si>
-  <si>
-    <t>0.83+/-0.003</t>
-  </si>
-  <si>
-    <t>0.83+/-0.011</t>
-  </si>
-  <si>
-    <t>0.781</t>
-  </si>
-  <si>
-    <t>0.01+/-0.001</t>
-  </si>
-  <si>
-    <t>0.609+/-0.001</t>
-  </si>
-  <si>
-    <t>0.609+/-0.0</t>
-  </si>
-  <si>
-    <t>0.511</t>
-  </si>
-  <si>
-    <t>0.591+/-0.001</t>
-  </si>
-  <si>
-    <t>0.592+/-0.014</t>
-  </si>
-  <si>
-    <t>0.175</t>
-  </si>
-  <si>
-    <t>0.703+/-0.002</t>
-  </si>
-  <si>
-    <t>0.703+/-0.021</t>
-  </si>
-  <si>
-    <t>0.609</t>
-  </si>
-  <si>
-    <t>0.803+/-0.009</t>
-  </si>
-  <si>
-    <t>0.746+/-0.0</t>
-  </si>
-  <si>
-    <t>0.637</t>
-  </si>
-  <si>
-    <t>0.763+/-0.015</t>
-  </si>
-  <si>
-    <t>0.711+/-0.012</t>
-  </si>
-  <si>
-    <t>0.216</t>
-  </si>
-  <si>
-    <t>0.88+/-0.031</t>
-  </si>
-  <si>
-    <t>0.832+/-0.048</t>
-  </si>
-  <si>
-    <t>0.541</t>
-  </si>
-  <si>
-    <t>9.688+/-2.556</t>
-  </si>
-  <si>
-    <t>0.808+/-0.013</t>
-  </si>
-  <si>
-    <t>0.763+/-0.0</t>
-  </si>
-  <si>
-    <t>0.704</t>
-  </si>
-  <si>
-    <t>0.805+/-0.019</t>
-  </si>
-  <si>
-    <t>0.758+/-0.016</t>
-  </si>
-  <si>
-    <t>0.222</t>
-  </si>
-  <si>
-    <t>0.814+/-0.034</t>
-  </si>
-  <si>
-    <t>0.773+/-0.037</t>
-  </si>
-  <si>
-    <t>0.391</t>
-  </si>
-  <si>
-    <t>0.131+/-0.006</t>
-  </si>
-  <si>
-    <t>0.79+/-0.008</t>
-  </si>
-  <si>
-    <t>0.754+/-0.0</t>
-  </si>
-  <si>
-    <t>0.687</t>
-  </si>
-  <si>
-    <t>0.788+/-0.015</t>
-  </si>
-  <si>
-    <t>0.749+/-0.019</t>
-  </si>
-  <si>
-    <t>0.227</t>
-  </si>
-  <si>
-    <t>0.796+/-0.036</t>
-  </si>
-  <si>
-    <t>0.765+/-0.037</t>
-  </si>
-  <si>
-    <t>0.452</t>
-  </si>
-  <si>
-    <t>0.206+/-0.002</t>
-  </si>
-  <si>
-    <t>0.724+/-0.002</t>
-  </si>
-  <si>
-    <t>0.706+/-0.0</t>
-  </si>
-  <si>
-    <t>0.61</t>
-  </si>
-  <si>
-    <t>0.695+/-0.002</t>
-  </si>
-  <si>
-    <t>0.679+/-0.015</t>
-  </si>
-  <si>
-    <t>0.21</t>
-  </si>
-  <si>
-    <t>0.8+/-0.007</t>
-  </si>
-  <si>
-    <t>0.782+/-0.021</t>
-  </si>
-  <si>
-    <t>0.577</t>
-  </si>
-  <si>
-    <t>54.153+/-2.568</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.15+/-0.229</t>
-  </si>
-  <si>
-    <t>0.3+/-0.458</t>
-  </si>
-  <si>
-    <t>0.957+/-0.005</t>
-  </si>
-  <si>
-    <t>0.697+/-0.0</t>
-  </si>
-  <si>
-    <t>0.573</t>
-  </si>
-  <si>
-    <t>0.99+/-0.031</t>
-  </si>
-  <si>
-    <t>0.651+/-0.015</t>
-  </si>
-  <si>
-    <t>0.322</t>
-  </si>
-  <si>
-    <t>0.925+/-0.025</t>
-  </si>
-  <si>
-    <t>0.85+/-0.03</t>
-  </si>
-  <si>
-    <t>0.493</t>
-  </si>
-  <si>
-    <t>0.565+/-0.002</t>
-  </si>
-  <si>
-    <t>0.564+/-0.0</t>
-  </si>
-  <si>
-    <t>0.595</t>
-  </si>
-  <si>
-    <t>0.575+/-0.002</t>
-  </si>
-  <si>
-    <t>0.573+/-0.021</t>
-  </si>
-  <si>
-    <t>0.342</t>
-  </si>
-  <si>
-    <t>0.5+/-0.006</t>
-  </si>
-  <si>
-    <t>0.498+/-0.037</t>
-  </si>
-  <si>
-    <t>0.503</t>
-  </si>
-  <si>
-    <t>0.445+/-0.045</t>
-  </si>
-  <si>
-    <t>0.548+/-0.002</t>
-  </si>
-  <si>
-    <t>0.545+/-0.0</t>
-  </si>
-  <si>
-    <t>0.613</t>
-  </si>
-  <si>
-    <t>0.57+/-0.005</t>
-  </si>
-  <si>
-    <t>0.564+/-0.023</t>
-  </si>
-  <si>
-    <t>0.334</t>
-  </si>
-  <si>
-    <t>0.396+/-0.025</t>
-  </si>
-  <si>
-    <t>0.394+/-0.044</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>0.007+/-0.0</t>
-  </si>
-  <si>
-    <t>0.548+/-0.0</t>
-  </si>
-  <si>
-    <t>0.553+/-0.002</t>
-  </si>
-  <si>
-    <t>0.553+/-0.018</t>
-  </si>
-  <si>
-    <t>0.497+/-0.002</t>
-  </si>
-  <si>
-    <t>0.497+/-0.022</t>
-  </si>
-  <si>
-    <t>0.009+/-0.0</t>
-  </si>
-  <si>
-    <t>0.708+/-0.008</t>
-  </si>
-  <si>
-    <t>0.635+/-0.0</t>
-  </si>
-  <si>
-    <t>0.616</t>
-  </si>
-  <si>
-    <t>0.728+/-0.029</t>
-  </si>
-  <si>
-    <t>0.646+/-0.022</t>
-  </si>
-  <si>
-    <t>0.339</t>
-  </si>
-  <si>
-    <t>0.672+/-0.065</t>
-  </si>
-  <si>
-    <t>0.604+/-0.062</t>
-  </si>
-  <si>
-    <t>0.408</t>
-  </si>
-  <si>
-    <t>5.302+/-1.353</t>
-  </si>
-  <si>
-    <t>0.72+/-0.008</t>
-  </si>
-  <si>
-    <t>0.65+/-0.0</t>
-  </si>
-  <si>
-    <t>0.794+/-0.041</t>
-  </si>
-  <si>
-    <t>0.703+/-0.025</t>
-  </si>
-  <si>
-    <t>0.338</t>
-  </si>
-  <si>
-    <t>0.601+/-0.053</t>
-  </si>
-  <si>
-    <t>0.525+/-0.054</t>
-  </si>
-  <si>
-    <t>0.346</t>
-  </si>
-  <si>
-    <t>0.129+/-0.006</t>
-  </si>
-  <si>
-    <t>0.7+/-0.008</t>
-  </si>
-  <si>
-    <t>0.642+/-0.0</t>
-  </si>
-  <si>
-    <t>0.661</t>
-  </si>
-  <si>
-    <t>0.769+/-0.045</t>
-  </si>
-  <si>
-    <t>0.692+/-0.042</t>
-  </si>
-  <si>
-    <t>0.36</t>
-  </si>
-  <si>
-    <t>0.582+/-0.063</t>
-  </si>
-  <si>
-    <t>0.521+/-0.057</t>
-  </si>
-  <si>
-    <t>0.289</t>
-  </si>
-  <si>
-    <t>0.189+/-0.005</t>
-  </si>
-  <si>
-    <t>0.648+/-0.002</t>
-  </si>
-  <si>
-    <t>0.608+/-0.0</t>
-  </si>
-  <si>
-    <t>0.596</t>
-  </si>
-  <si>
-    <t>0.648+/-0.003</t>
-  </si>
-  <si>
-    <t>0.607+/-0.013</t>
-  </si>
-  <si>
-    <t>0.347</t>
-  </si>
-  <si>
-    <t>0.648+/-0.008</t>
-  </si>
-  <si>
-    <t>0.612+/-0.022</t>
-  </si>
-  <si>
-    <t>0.518</t>
-  </si>
-  <si>
-    <t>58.85+/-10.59</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.25+/-0.25</t>
-  </si>
-  <si>
-    <t>0.5+/-0.5</t>
-  </si>
-  <si>
-    <t>0.953+/-0.008</t>
-  </si>
-  <si>
-    <t>0.677+/-0.0</t>
-  </si>
-  <si>
-    <t>0.558</t>
-  </si>
-  <si>
-    <t>0.969+/-0.048</t>
-  </si>
-  <si>
-    <t>0.636+/-0.018</t>
-  </si>
-  <si>
-    <t>0.349</t>
-  </si>
-  <si>
-    <t>0.941+/-0.038</t>
-  </si>
-  <si>
-    <t>0.834+/-0.04</t>
-  </si>
-  <si>
-    <t>0.553+/-0.003</t>
-  </si>
-  <si>
-    <t>0.559+/-0.003</t>
-  </si>
-  <si>
-    <t>0.551+/-0.017</t>
-  </si>
-  <si>
-    <t>0.364</t>
-  </si>
-  <si>
-    <t>0.497+/-0.008</t>
-  </si>
-  <si>
-    <t>0.489+/-0.018</t>
-  </si>
-  <si>
-    <t>0.497</t>
-  </si>
-  <si>
-    <t>0.705+/-0.118</t>
-  </si>
-  <si>
-    <t>0.546+/-0.005</t>
-  </si>
-  <si>
-    <t>0.544+/-0.0</t>
-  </si>
-  <si>
-    <t>0.607</t>
-  </si>
-  <si>
-    <t>0.569+/-0.004</t>
-  </si>
-  <si>
-    <t>0.566+/-0.025</t>
-  </si>
-  <si>
-    <t>0.366</t>
-  </si>
-  <si>
-    <t>0.377+/-0.025</t>
-  </si>
-  <si>
-    <t>0.376+/-0.035</t>
-  </si>
-  <si>
-    <t>0.013+/-0.006</t>
-  </si>
-  <si>
-    <t>0.541+/-0.001</t>
-  </si>
-  <si>
-    <t>0.541+/-0.0</t>
-  </si>
-  <si>
-    <t>0.567</t>
-  </si>
-  <si>
-    <t>0.546+/-0.002</t>
-  </si>
-  <si>
-    <t>0.545+/-0.014</t>
-  </si>
-  <si>
-    <t>0.354</t>
-  </si>
-  <si>
-    <t>0.489+/-0.003</t>
-  </si>
-  <si>
-    <t>0.492</t>
-  </si>
-  <si>
-    <t>0.029+/-0.008</t>
-  </si>
-  <si>
-    <t>0.692+/-0.012</t>
-  </si>
-  <si>
-    <t>0.607+/-0.0</t>
-  </si>
-  <si>
-    <t>0.601</t>
-  </si>
-  <si>
-    <t>0.715+/-0.03</t>
-  </si>
-  <si>
-    <t>0.618+/-0.02</t>
-  </si>
-  <si>
-    <t>0.373</t>
-  </si>
-  <si>
-    <t>0.645+/-0.057</t>
-  </si>
-  <si>
-    <t>0.565+/-0.059</t>
-  </si>
-  <si>
-    <t>0.433</t>
-  </si>
-  <si>
-    <t>75.062+/-74.845</t>
-  </si>
-  <si>
-    <t>0.709+/-0.008</t>
-  </si>
-  <si>
-    <t>0.638+/-0.0</t>
-  </si>
-  <si>
-    <t>0.612</t>
-  </si>
-  <si>
-    <t>0.751+/-0.016</t>
-  </si>
-  <si>
-    <t>0.667+/-0.023</t>
-  </si>
-  <si>
-    <t>0.374</t>
-  </si>
-  <si>
-    <t>0.626+/-0.036</t>
-  </si>
-  <si>
-    <t>0.555+/-0.032</t>
-  </si>
-  <si>
-    <t>0.384</t>
-  </si>
-  <si>
-    <t>0.126+/-0.002</t>
-  </si>
-  <si>
-    <t>0.697+/-0.009</t>
-  </si>
-  <si>
-    <t>0.632</t>
-  </si>
-  <si>
-    <t>0.757+/-0.022</t>
-  </si>
-  <si>
-    <t>0.681+/-0.029</t>
-  </si>
-  <si>
-    <t>0.39</t>
-  </si>
-  <si>
-    <t>0.582+/-0.035</t>
-  </si>
-  <si>
-    <t>0.525+/-0.041</t>
-  </si>
-  <si>
-    <t>0.186+/-0.003</t>
-  </si>
-  <si>
-    <t>0.639+/-0.003</t>
-  </si>
-  <si>
-    <t>0.594+/-0.0</t>
-  </si>
-  <si>
-    <t>0.636+/-0.002</t>
-  </si>
-  <si>
-    <t>0.591+/-0.011</t>
-  </si>
-  <si>
-    <t>0.37</t>
-  </si>
-  <si>
-    <t>0.65+/-0.011</t>
-  </si>
-  <si>
-    <t>0.61+/-0.016</t>
-  </si>
-  <si>
-    <t>0.545</t>
-  </si>
-  <si>
-    <t>50.282+/-2.761</t>
+    <t>0.634+/-0.003</t>
+  </si>
+  <si>
+    <t>0.593+/-0.01</t>
+  </si>
+  <si>
+    <t>0.369</t>
+  </si>
+  <si>
+    <t>0.661+/-0.009</t>
+  </si>
+  <si>
+    <t>0.622+/-0.021</t>
+  </si>
+  <si>
+    <t>0.551</t>
+  </si>
+  <si>
+    <t>32.255+/-1.754</t>
   </si>
 </sst>
 </file>
@@ -1437,13 +1446,13 @@
         <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1469,13 +1478,13 @@
         <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="J3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1501,13 +1510,13 @@
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1533,13 +1542,13 @@
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1565,13 +1574,13 @@
         <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1594,16 +1603,16 @@
         <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1626,16 +1635,16 @@
         <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1658,16 +1667,16 @@
         <v>62</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1690,16 +1699,16 @@
         <v>63</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1722,16 +1731,16 @@
         <v>64</v>
       </c>
       <c r="G11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1784,28 +1793,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1816,28 +1825,28 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1845,31 +1854,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1880,28 +1889,28 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1912,28 +1921,28 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1944,28 +1953,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H7" t="s">
-        <v>159</v>
+        <v>50</v>
       </c>
       <c r="I7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1976,28 +1985,28 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2008,28 +2017,28 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H9" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="J9" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2040,28 +2049,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F10" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G10" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H10" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J10" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2072,28 +2081,28 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E11" t="s">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H11" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I11" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J11" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2146,28 +2155,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="G2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2178,28 +2187,28 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I3" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="J3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2207,31 +2216,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F4" t="s">
-        <v>107</v>
+        <v>213</v>
       </c>
       <c r="G4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="I4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2239,31 +2248,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2271,31 +2280,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D6" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2306,28 +2315,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>188</v>
       </c>
       <c r="G7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2335,31 +2344,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F8" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2367,31 +2376,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C9" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D9" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E9" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F9" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2402,28 +2411,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E10" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F10" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="G10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2434,28 +2443,28 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E11" t="s">
-        <v>215</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -2508,28 +2517,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D2" t="s">
         <v>272</v>
       </c>
       <c r="E2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="J2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2540,28 +2549,28 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D3" t="s">
-        <v>207</v>
+        <v>273</v>
       </c>
       <c r="E3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I3" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="J3" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2569,31 +2578,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D4" t="s">
-        <v>182</v>
+        <v>274</v>
       </c>
       <c r="E4" t="s">
-        <v>282</v>
+        <v>204</v>
       </c>
       <c r="F4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I4" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="J4" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2601,31 +2610,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D5" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F5" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G5" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H5" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="I5" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="J5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2633,31 +2642,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D6" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F6" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G6" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H6" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="I6" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="J6" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2668,28 +2677,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="I7" t="s">
-        <v>322</v>
+        <v>124</v>
       </c>
       <c r="J7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2697,31 +2706,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D8" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F8" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G8" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H8" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="I8" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J8" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2729,31 +2738,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F9" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="G9" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H9" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="I9" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="J9" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2764,28 +2773,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>271</v>
       </c>
       <c r="D10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E10" t="s">
-        <v>127</v>
+        <v>289</v>
       </c>
       <c r="F10" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="G10" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H10" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="I10" t="s">
-        <v>256</v>
+        <v>327</v>
       </c>
       <c r="J10" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2793,31 +2802,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>262</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E11" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F11" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="G11" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H11" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I11" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="J11" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_10_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_10_1_replicas_SMOTE.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="428">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -73,964 +73,1234 @@
     <t>Recall Test</t>
   </si>
   <si>
+    <t>AUC - Train</t>
+  </si>
+  <si>
+    <t>AUC - Validation</t>
+  </si>
+  <si>
+    <t>AUC - Test</t>
+  </si>
+  <si>
     <t>Time</t>
   </si>
   <si>
     <t>0.5+/-0.0</t>
   </si>
   <si>
+    <t>0.799+/-0.0</t>
+  </si>
+  <si>
     <t>0.798</t>
   </si>
   <si>
-    <t>0.05+/-0.15</t>
+    <t>0.0+/-0.0</t>
   </si>
   <si>
     <t>0.0</t>
   </si>
   <si>
-    <t>0.1+/-0.3</t>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.001+/-0.002</t>
+  </si>
+  <si>
+    <t>0.946+/-0.022</t>
+  </si>
+  <si>
+    <t>0.582+/-0.0</t>
+  </si>
+  <si>
+    <t>0.786</t>
+  </si>
+  <si>
+    <t>0.937+/-0.032</t>
+  </si>
+  <si>
+    <t>0.261+/-0.019</t>
+  </si>
+  <si>
+    <t>0.354</t>
+  </si>
+  <si>
+    <t>0.96+/-0.078</t>
+  </si>
+  <si>
+    <t>0.591+/-0.087</t>
+  </si>
+  <si>
+    <t>0.075</t>
+  </si>
+  <si>
+    <t>0.992+/-0.0</t>
+  </si>
+  <si>
+    <t>0.624+/-0.026</t>
+  </si>
+  <si>
+    <t>0.616</t>
+  </si>
+  <si>
+    <t>0.008+/-0.003</t>
+  </si>
+  <si>
+    <t>0.63+/-0.003</t>
+  </si>
+  <si>
+    <t>0.584+/-0.0</t>
+  </si>
+  <si>
+    <t>0.616+/-0.004</t>
+  </si>
+  <si>
+    <t>0.277+/-0.011</t>
+  </si>
+  <si>
+    <t>0.692+/-0.008</t>
+  </si>
+  <si>
+    <t>0.663+/-0.034</t>
+  </si>
+  <si>
+    <t>0.681+/-0.003</t>
+  </si>
+  <si>
+    <t>0.664+/-0.019</t>
+  </si>
+  <si>
+    <t>0.625</t>
+  </si>
+  <si>
+    <t>0.947+/-0.254</t>
+  </si>
+  <si>
+    <t>0.553+/-0.004</t>
+  </si>
+  <si>
+    <t>0.34+/-0.0</t>
+  </si>
+  <si>
+    <t>0.465</t>
+  </si>
+  <si>
+    <t>0.531+/-0.002</t>
+  </si>
+  <si>
+    <t>0.219+/-0.004</t>
+  </si>
+  <si>
+    <t>0.226</t>
+  </si>
+  <si>
+    <t>0.901+/-0.011</t>
+  </si>
+  <si>
+    <t>0.885+/-0.024</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>0.639+/-0.004</t>
+  </si>
+  <si>
+    <t>0.629+/-0.022</t>
+  </si>
+  <si>
+    <t>0.581</t>
+  </si>
+  <si>
+    <t>0.012+/-0.006</t>
+  </si>
+  <si>
+    <t>0.597+/-0.003</t>
+  </si>
+  <si>
+    <t>0.552+/-0.0</t>
+  </si>
+  <si>
+    <t>0.675</t>
+  </si>
+  <si>
+    <t>0.585+/-0.002</t>
+  </si>
+  <si>
+    <t>0.259+/-0.008</t>
+  </si>
+  <si>
+    <t>0.278</t>
+  </si>
+  <si>
+    <t>0.668+/-0.005</t>
+  </si>
+  <si>
+    <t>0.658+/-0.03</t>
+  </si>
+  <si>
+    <t>0.381</t>
+  </si>
+  <si>
+    <t>0.631+/-0.004</t>
+  </si>
+  <si>
+    <t>0.622+/-0.027</t>
+  </si>
+  <si>
+    <t>0.571</t>
+  </si>
+  <si>
+    <t>0.059+/-0.007</t>
+  </si>
+  <si>
+    <t>0.789+/-0.012</t>
+  </si>
+  <si>
+    <t>0.613+/-0.0</t>
+  </si>
+  <si>
+    <t>0.78</t>
+  </si>
+  <si>
+    <t>0.744+/-0.016</t>
+  </si>
+  <si>
+    <t>0.278+/-0.018</t>
+  </si>
+  <si>
+    <t>0.276</t>
+  </si>
+  <si>
+    <t>0.881+/-0.016</t>
+  </si>
+  <si>
+    <t>0.578+/-0.053</t>
+  </si>
+  <si>
+    <t>0.056</t>
+  </si>
+  <si>
+    <t>0.862+/-0.01</t>
+  </si>
+  <si>
+    <t>0.637+/-0.021</t>
+  </si>
+  <si>
+    <t>154.448+/-206.833</t>
+  </si>
+  <si>
+    <t>0.8+/-0.011</t>
+  </si>
+  <si>
+    <t>0.656+/-0.0</t>
+  </si>
+  <si>
+    <t>0.772</t>
+  </si>
+  <si>
+    <t>0.787+/-0.028</t>
+  </si>
+  <si>
+    <t>0.288+/-0.028</t>
+  </si>
+  <si>
+    <t>0.301</t>
+  </si>
+  <si>
+    <t>0.828+/-0.061</t>
+  </si>
+  <si>
+    <t>0.47+/-0.08</t>
+  </si>
+  <si>
+    <t>0.099</t>
+  </si>
+  <si>
+    <t>0.895+/-0.008</t>
+  </si>
+  <si>
+    <t>0.609+/-0.025</t>
+  </si>
+  <si>
+    <t>0.596</t>
+  </si>
+  <si>
+    <t>0.143+/-0.022</t>
+  </si>
+  <si>
+    <t>0.765+/-0.014</t>
+  </si>
+  <si>
+    <t>0.647+/-0.0</t>
+  </si>
+  <si>
+    <t>0.774</t>
+  </si>
+  <si>
+    <t>0.757+/-0.031</t>
+  </si>
+  <si>
+    <t>0.28+/-0.029</t>
+  </si>
+  <si>
+    <t>0.291</t>
+  </si>
+  <si>
+    <t>0.789+/-0.059</t>
+  </si>
+  <si>
+    <t>0.467+/-0.062</t>
+  </si>
+  <si>
+    <t>0.085</t>
+  </si>
+  <si>
+    <t>0.865+/-0.012</t>
+  </si>
+  <si>
+    <t>0.614+/-0.024</t>
+  </si>
+  <si>
+    <t>0.574</t>
+  </si>
+  <si>
+    <t>0.216+/-0.032</t>
+  </si>
+  <si>
+    <t>0.71+/-0.003</t>
+  </si>
+  <si>
+    <t>0.608+/-0.0</t>
+  </si>
+  <si>
+    <t>0.799</t>
+  </si>
+  <si>
+    <t>0.681+/-0.005</t>
+  </si>
+  <si>
+    <t>0.285+/-0.012</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>0.791+/-0.008</t>
+  </si>
+  <si>
+    <t>0.626+/-0.038</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
+    <t>0.78+/-0.003</t>
+  </si>
+  <si>
+    <t>0.665+/-0.03</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>59.38+/-1.51</t>
+  </si>
+  <si>
+    <t>0.85+/-0.0</t>
+  </si>
+  <si>
+    <t>0.85</t>
   </si>
   <si>
     <t>0.001+/-0.0</t>
   </si>
   <si>
-    <t>0.947+/-0.021</t>
-  </si>
-  <si>
-    <t>0.759+/-0.0</t>
-  </si>
-  <si>
-    <t>0.624</t>
-  </si>
-  <si>
-    <t>0.937+/-0.032</t>
-  </si>
-  <si>
-    <t>0.691+/-0.008</t>
-  </si>
-  <si>
-    <t>0.26</t>
-  </si>
-  <si>
-    <t>0.962+/-0.075</t>
-  </si>
-  <si>
-    <t>0.937+/-0.081</t>
-  </si>
-  <si>
-    <t>0.469</t>
-  </si>
-  <si>
-    <t>0.002+/-0.0</t>
-  </si>
-  <si>
-    <t>0.626+/-0.001</t>
-  </si>
-  <si>
-    <t>0.623+/-0.0</t>
-  </si>
-  <si>
-    <t>0.538</t>
-  </si>
-  <si>
-    <t>0.61+/-0.002</t>
-  </si>
-  <si>
-    <t>0.607+/-0.008</t>
-  </si>
-  <si>
-    <t>0.246</t>
-  </si>
-  <si>
-    <t>0.701+/-0.003</t>
-  </si>
-  <si>
-    <t>0.697+/-0.017</t>
-  </si>
-  <si>
-    <t>0.627</t>
-  </si>
-  <si>
-    <t>0.632+/-0.018</t>
+    <t>0.943+/-0.025</t>
+  </si>
+  <si>
+    <t>0.603+/-0.0</t>
+  </si>
+  <si>
+    <t>0.845</t>
+  </si>
+  <si>
+    <t>0.935+/-0.032</t>
+  </si>
+  <si>
+    <t>0.21+/-0.018</t>
+  </si>
+  <si>
+    <t>0.368</t>
+  </si>
+  <si>
+    <t>0.957+/-0.085</t>
+  </si>
+  <si>
+    <t>0.601+/-0.104</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.987+/-0.011</t>
+  </si>
+  <si>
+    <t>0.637+/-0.023</t>
+  </si>
+  <si>
+    <t>0.631</t>
+  </si>
+  <si>
+    <t>0.006+/-0.001</t>
+  </si>
+  <si>
+    <t>0.646+/-0.002</t>
+  </si>
+  <si>
+    <t>0.612+/-0.0</t>
+  </si>
+  <si>
+    <t>0.634+/-0.002</t>
+  </si>
+  <si>
+    <t>0.229+/-0.01</t>
+  </si>
+  <si>
+    <t>0.688+/-0.006</t>
+  </si>
+  <si>
+    <t>0.671+/-0.041</t>
+  </si>
+  <si>
+    <t>0.698+/-0.002</t>
+  </si>
+  <si>
+    <t>0.679+/-0.02</t>
+  </si>
+  <si>
+    <t>0.637</t>
+  </si>
+  <si>
+    <t>0.947+/-0.183</t>
+  </si>
+  <si>
+    <t>0.569+/-0.006</t>
+  </si>
+  <si>
+    <t>0.375+/-0.0</t>
+  </si>
+  <si>
+    <t>0.654</t>
+  </si>
+  <si>
+    <t>0.545+/-0.005</t>
+  </si>
+  <si>
+    <t>0.171+/-0.006</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>0.843+/-0.006</t>
+  </si>
+  <si>
+    <t>0.826+/-0.031</t>
+  </si>
+  <si>
+    <t>0.473</t>
+  </si>
+  <si>
+    <t>0.652+/-0.002</t>
+  </si>
+  <si>
+    <t>0.639+/-0.02</t>
+  </si>
+  <si>
+    <t>0.599</t>
+  </si>
+  <si>
+    <t>0.01+/-0.0</t>
+  </si>
+  <si>
+    <t>0.608+/-0.003</t>
+  </si>
+  <si>
+    <t>0.544+/-0.0</t>
+  </si>
+  <si>
+    <t>0.713</t>
+  </si>
+  <si>
+    <t>0.592+/-0.002</t>
+  </si>
+  <si>
+    <t>0.202+/-0.011</t>
+  </si>
+  <si>
+    <t>0.224</t>
+  </si>
+  <si>
+    <t>0.699+/-0.008</t>
+  </si>
+  <si>
+    <t>0.688+/-0.021</t>
+  </si>
+  <si>
+    <t>0.369</t>
+  </si>
+  <si>
+    <t>0.643+/-0.003</t>
+  </si>
+  <si>
+    <t>0.634+/-0.021</t>
+  </si>
+  <si>
+    <t>0.591</t>
+  </si>
+  <si>
+    <t>0.013+/-0.001</t>
+  </si>
+  <si>
+    <t>0.814+/-0.005</t>
+  </si>
+  <si>
+    <t>0.849</t>
+  </si>
+  <si>
+    <t>0.772+/-0.009</t>
+  </si>
+  <si>
+    <t>0.226+/-0.018</t>
+  </si>
+  <si>
+    <t>0.462</t>
+  </si>
+  <si>
+    <t>0.894+/-0.02</t>
+  </si>
+  <si>
+    <t>0.533+/-0.048</t>
+  </si>
+  <si>
+    <t>0.022</t>
+  </si>
+  <si>
+    <t>0.885+/-0.006</t>
+  </si>
+  <si>
+    <t>0.64+/-0.023</t>
+  </si>
+  <si>
+    <t>0.646</t>
+  </si>
+  <si>
+    <t>19.146+/-4.562</t>
+  </si>
+  <si>
+    <t>0.807+/-0.017</t>
+  </si>
+  <si>
+    <t>0.676+/-0.0</t>
+  </si>
+  <si>
+    <t>0.834</t>
+  </si>
+  <si>
+    <t>0.781+/-0.032</t>
+  </si>
+  <si>
+    <t>0.228+/-0.027</t>
+  </si>
+  <si>
+    <t>0.254</t>
+  </si>
+  <si>
+    <t>0.859+/-0.023</t>
+  </si>
+  <si>
+    <t>0.474+/-0.058</t>
+  </si>
+  <si>
+    <t>0.054</t>
+  </si>
+  <si>
+    <t>0.897+/-0.012</t>
+  </si>
+  <si>
+    <t>0.615+/-0.025</t>
+  </si>
+  <si>
+    <t>0.601</t>
+  </si>
+  <si>
+    <t>0.145+/-0.014</t>
+  </si>
+  <si>
+    <t>0.786+/-0.016</t>
+  </si>
+  <si>
+    <t>0.697+/-0.0</t>
+  </si>
+  <si>
+    <t>0.83</t>
+  </si>
+  <si>
+    <t>0.787+/-0.038</t>
+  </si>
+  <si>
+    <t>0.241+/-0.032</t>
+  </si>
+  <si>
+    <t>0.186</t>
+  </si>
+  <si>
+    <t>0.793+/-0.053</t>
+  </si>
+  <si>
+    <t>0.45+/-0.064</t>
+  </si>
+  <si>
+    <t>0.039</t>
+  </si>
+  <si>
+    <t>0.884+/-0.012</t>
+  </si>
+  <si>
+    <t>0.625+/-0.02</t>
+  </si>
+  <si>
+    <t>0.603</t>
+  </si>
+  <si>
+    <t>0.212+/-0.015</t>
+  </si>
+  <si>
+    <t>0.724+/-0.004</t>
+  </si>
+  <si>
+    <t>0.634+/-0.0</t>
+  </si>
+  <si>
+    <t>0.851</t>
+  </si>
+  <si>
+    <t>0.696+/-0.007</t>
+  </si>
+  <si>
+    <t>0.234+/-0.012</t>
+  </si>
+  <si>
+    <t>0.798+/-0.012</t>
+  </si>
+  <si>
+    <t>0.636+/-0.045</t>
+  </si>
+  <si>
+    <t>0.004</t>
+  </si>
+  <si>
+    <t>0.799+/-0.003</t>
+  </si>
+  <si>
+    <t>0.681+/-0.02</t>
+  </si>
+  <si>
+    <t>0.622</t>
+  </si>
+  <si>
+    <t>61.677+/-4.247</t>
+  </si>
+  <si>
+    <t>0.723+/-0.0</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.002+/-0.002</t>
+  </si>
+  <si>
+    <t>0.955+/-0.006</t>
+  </si>
+  <si>
+    <t>0.53+/-0.0</t>
+  </si>
+  <si>
+    <t>0.704</t>
+  </si>
+  <si>
+    <t>0.98+/-0.041</t>
+  </si>
+  <si>
+    <t>0.302+/-0.019</t>
+  </si>
+  <si>
+    <t>0.378</t>
+  </si>
+  <si>
+    <t>0.932+/-0.034</t>
+  </si>
+  <si>
+    <t>0.53+/-0.052</t>
+  </si>
+  <si>
+    <t>0.109</t>
+  </si>
+  <si>
+    <t>0.995+/-0.0</t>
+  </si>
+  <si>
+    <t>0.544+/-0.028</t>
+  </si>
+  <si>
+    <t>0.576</t>
+  </si>
+  <si>
+    <t>0.569+/-0.005</t>
+  </si>
+  <si>
+    <t>0.593+/-0.0</t>
+  </si>
+  <si>
+    <t>0.579+/-0.005</t>
+  </si>
+  <si>
+    <t>0.342+/-0.014</t>
+  </si>
+  <si>
+    <t>0.486</t>
+  </si>
+  <si>
+    <t>0.511+/-0.013</t>
+  </si>
+  <si>
+    <t>0.509+/-0.025</t>
+  </si>
+  <si>
+    <t>0.033</t>
+  </si>
+  <si>
+    <t>0.608+/-0.004</t>
+  </si>
+  <si>
+    <t>0.599+/-0.014</t>
+  </si>
+  <si>
+    <t>0.606</t>
+  </si>
+  <si>
+    <t>0.454+/-0.115</t>
   </si>
   <si>
     <t>0.551+/-0.001</t>
   </si>
   <si>
-    <t>0.552+/-0.0</t>
-  </si>
-  <si>
-    <t>0.331</t>
-  </si>
-  <si>
-    <t>0.53+/-0.001</t>
-  </si>
-  <si>
-    <t>0.531+/-0.005</t>
-  </si>
-  <si>
-    <t>0.213</t>
-  </si>
-  <si>
-    <t>0.895+/-0.003</t>
-  </si>
-  <si>
-    <t>0.896+/-0.009</t>
-  </si>
-  <si>
-    <t>0.859</t>
-  </si>
-  <si>
-    <t>0.006+/-0.001</t>
-  </si>
-  <si>
-    <t>0.599+/-0.002</t>
-  </si>
-  <si>
-    <t>0.599+/-0.0</t>
-  </si>
-  <si>
-    <t>0.503</t>
-  </si>
-  <si>
-    <t>0.585+/-0.001</t>
-  </si>
-  <si>
-    <t>0.584+/-0.01</t>
-  </si>
-  <si>
-    <t>0.219</t>
-  </si>
-  <si>
-    <t>0.682+/-0.003</t>
-  </si>
-  <si>
-    <t>0.682+/-0.02</t>
-  </si>
-  <si>
-    <t>0.571</t>
-  </si>
-  <si>
-    <t>0.008+/-0.001</t>
-  </si>
-  <si>
-    <t>0.778+/-0.008</t>
-  </si>
-  <si>
-    <t>0.722+/-0.0</t>
+    <t>0.615+/-0.0</t>
+  </si>
+  <si>
+    <t>0.669</t>
+  </si>
+  <si>
+    <t>0.572+/-0.003</t>
+  </si>
+  <si>
+    <t>0.34+/-0.016</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>0.405+/-0.021</t>
+  </si>
+  <si>
+    <t>0.41+/-0.023</t>
+  </si>
+  <si>
+    <t>0.227</t>
+  </si>
+  <si>
+    <t>0.579+/-0.003</t>
+  </si>
+  <si>
+    <t>0.575+/-0.021</t>
+  </si>
+  <si>
+    <t>0.589</t>
+  </si>
+  <si>
+    <t>0.011+/-0.0</t>
+  </si>
+  <si>
+    <t>0.551+/-0.003</t>
+  </si>
+  <si>
+    <t>0.571+/-0.0</t>
+  </si>
+  <si>
+    <t>0.609</t>
+  </si>
+  <si>
+    <t>0.557+/-0.003</t>
+  </si>
+  <si>
+    <t>0.325+/-0.015</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>0.505+/-0.005</t>
+  </si>
+  <si>
+    <t>0.508+/-0.023</t>
+  </si>
+  <si>
+    <t>0.573+/-0.026</t>
+  </si>
+  <si>
+    <t>0.578</t>
+  </si>
+  <si>
+    <t>0.014+/-0.001</t>
+  </si>
+  <si>
+    <t>0.725+/-0.014</t>
+  </si>
+  <si>
+    <t>0.575+/-0.0</t>
+  </si>
+  <si>
+    <t>0.732+/-0.026</t>
+  </si>
+  <si>
+    <t>0.308+/-0.017</t>
+  </si>
+  <si>
+    <t>0.399</t>
+  </si>
+  <si>
+    <t>0.716+/-0.067</t>
+  </si>
+  <si>
+    <t>0.429+/-0.069</t>
+  </si>
+  <si>
+    <t>0.134</t>
+  </si>
+  <si>
+    <t>0.809+/-0.013</t>
+  </si>
+  <si>
+    <t>0.537+/-0.017</t>
+  </si>
+  <si>
+    <t>34.261+/-11.053</t>
+  </si>
+  <si>
+    <t>0.724+/-0.008</t>
+  </si>
+  <si>
+    <t>0.633+/-0.0</t>
+  </si>
+  <si>
+    <t>0.708</t>
+  </si>
+  <si>
+    <t>0.784+/-0.042</t>
+  </si>
+  <si>
+    <t>0.33+/-0.027</t>
+  </si>
+  <si>
+    <t>0.422</t>
+  </si>
+  <si>
+    <t>0.627+/-0.052</t>
+  </si>
+  <si>
+    <t>0.309+/-0.072</t>
+  </si>
+  <si>
+    <t>0.148</t>
+  </si>
+  <si>
+    <t>0.82+/-0.009</t>
+  </si>
+  <si>
+    <t>0.537+/-0.018</t>
+  </si>
+  <si>
+    <t>0.536</t>
+  </si>
+  <si>
+    <t>0.17+/-0.007</t>
+  </si>
+  <si>
+    <t>0.718+/-0.007</t>
+  </si>
+  <si>
+    <t>0.651+/-0.0</t>
+  </si>
+  <si>
+    <t>0.695</t>
+  </si>
+  <si>
+    <t>0.795+/-0.037</t>
+  </si>
+  <si>
+    <t>0.345+/-0.019</t>
+  </si>
+  <si>
+    <t>0.362</t>
+  </si>
+  <si>
+    <t>0.594+/-0.053</t>
+  </si>
+  <si>
+    <t>0.29+/-0.073</t>
+  </si>
+  <si>
+    <t>0.132</t>
+  </si>
+  <si>
+    <t>0.813+/-0.008</t>
+  </si>
+  <si>
+    <t>0.551+/-0.017</t>
+  </si>
+  <si>
+    <t>0.529</t>
+  </si>
+  <si>
+    <t>0.276+/-0.012</t>
+  </si>
+  <si>
+    <t>0.657+/-0.004</t>
+  </si>
+  <si>
+    <t>0.579+/-0.0</t>
+  </si>
+  <si>
+    <t>0.661+/-0.004</t>
+  </si>
+  <si>
+    <t>0.324+/-0.023</t>
+  </si>
+  <si>
+    <t>0.642+/-0.016</t>
+  </si>
+  <si>
+    <t>0.475+/-0.024</t>
+  </si>
+  <si>
+    <t>0.025</t>
+  </si>
+  <si>
+    <t>0.716+/-0.005</t>
+  </si>
+  <si>
+    <t>0.575+/-0.033</t>
+  </si>
+  <si>
+    <t>0.565</t>
+  </si>
+  <si>
+    <t>53.196+/-3.846</t>
+  </si>
+  <si>
+    <t>0.692+/-0.0</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.957+/-0.006</t>
+  </si>
+  <si>
+    <t>0.535+/-0.0</t>
+  </si>
+  <si>
+    <t>0.672</t>
+  </si>
+  <si>
+    <t>0.989+/-0.032</t>
+  </si>
+  <si>
+    <t>0.333+/-0.02</t>
+  </si>
+  <si>
+    <t>0.411</t>
+  </si>
+  <si>
+    <t>0.925+/-0.025</t>
+  </si>
+  <si>
+    <t>0.507+/-0.044</t>
+  </si>
+  <si>
+    <t>0.536+/-0.021</t>
+  </si>
+  <si>
+    <t>0.521</t>
+  </si>
+  <si>
+    <t>0.006+/-0.002</t>
+  </si>
+  <si>
+    <t>0.555+/-0.003</t>
+  </si>
+  <si>
+    <t>0.567+/-0.0</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>0.562+/-0.004</t>
+  </si>
+  <si>
+    <t>0.355+/-0.011</t>
+  </si>
+  <si>
+    <t>0.459</t>
+  </si>
+  <si>
+    <t>0.505+/-0.011</t>
+  </si>
+  <si>
+    <t>0.496+/-0.027</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>0.585+/-0.005</t>
+  </si>
+  <si>
+    <t>0.571+/-0.016</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>0.508+/-0.197</t>
+  </si>
+  <si>
+    <t>0.538+/-0.005</t>
+  </si>
+  <si>
+    <t>0.651</t>
+  </si>
+  <si>
+    <t>0.563+/-0.005</t>
+  </si>
+  <si>
+    <t>0.363+/-0.018</t>
+  </si>
+  <si>
+    <t>0.382</t>
+  </si>
+  <si>
+    <t>0.343+/-0.038</t>
+  </si>
+  <si>
+    <t>0.342+/-0.052</t>
+  </si>
+  <si>
+    <t>0.216</t>
+  </si>
+  <si>
+    <t>0.567+/-0.004</t>
+  </si>
+  <si>
+    <t>0.562+/-0.01</t>
+  </si>
+  <si>
+    <t>0.01+/-0.003</t>
+  </si>
+  <si>
+    <t>0.539+/-0.003</t>
+  </si>
+  <si>
+    <t>0.565+/-0.0</t>
+  </si>
+  <si>
+    <t>0.605</t>
+  </si>
+  <si>
+    <t>0.545+/-0.003</t>
+  </si>
+  <si>
+    <t>0.352+/-0.011</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>0.48+/-0.006</t>
+  </si>
+  <si>
+    <t>0.489+/-0.02</t>
+  </si>
+  <si>
+    <t>0.56+/-0.003</t>
+  </si>
+  <si>
+    <t>0.559+/-0.016</t>
+  </si>
+  <si>
+    <t>0.563</t>
+  </si>
+  <si>
+    <t>0.082+/-0.027</t>
+  </si>
+  <si>
+    <t>0.694+/-0.017</t>
+  </si>
+  <si>
+    <t>0.576+/-0.0</t>
+  </si>
+  <si>
+    <t>0.689</t>
+  </si>
+  <si>
+    <t>0.714+/-0.031</t>
+  </si>
+  <si>
+    <t>0.348+/-0.016</t>
+  </si>
+  <si>
+    <t>0.481</t>
+  </si>
+  <si>
+    <t>0.656+/-0.074</t>
+  </si>
+  <si>
+    <t>0.426+/-0.069</t>
+  </si>
+  <si>
+    <t>0.133</t>
+  </si>
+  <si>
+    <t>0.774+/-0.02</t>
+  </si>
+  <si>
+    <t>0.535+/-0.018</t>
   </si>
   <si>
     <t>0.583</t>
   </si>
   <si>
-    <t>0.738+/-0.016</t>
-  </si>
-  <si>
-    <t>0.687+/-0.015</t>
-  </si>
-  <si>
-    <t>0.864+/-0.023</t>
-  </si>
-  <si>
-    <t>0.815+/-0.026</t>
-  </si>
-  <si>
-    <t>0.579</t>
-  </si>
-  <si>
-    <t>4.327+/-0.553</t>
-  </si>
-  <si>
-    <t>0.795+/-0.006</t>
-  </si>
-  <si>
-    <t>0.728+/-0.0</t>
-  </si>
-  <si>
-    <t>0.634</t>
-  </si>
-  <si>
-    <t>0.79+/-0.023</t>
-  </si>
-  <si>
-    <t>0.724+/-0.028</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>0.807+/-0.045</t>
-  </si>
-  <si>
-    <t>0.742+/-0.057</t>
-  </si>
-  <si>
-    <t>0.408</t>
-  </si>
-  <si>
-    <t>0.096+/-0.008</t>
-  </si>
-  <si>
-    <t>0.773+/-0.006</t>
-  </si>
-  <si>
-    <t>0.612</t>
-  </si>
-  <si>
-    <t>0.764+/-0.027</t>
-  </si>
-  <si>
-    <t>0.715+/-0.03</t>
-  </si>
-  <si>
-    <t>0.247</t>
-  </si>
-  <si>
-    <t>0.793+/-0.046</t>
-  </si>
-  <si>
-    <t>0.743+/-0.059</t>
-  </si>
-  <si>
-    <t>0.451</t>
-  </si>
-  <si>
-    <t>0.132+/-0.006</t>
-  </si>
-  <si>
-    <t>0.704+/-0.003</t>
-  </si>
-  <si>
-    <t>0.682+/-0.0</t>
-  </si>
-  <si>
-    <t>0.592</t>
-  </si>
-  <si>
-    <t>0.677+/-0.003</t>
-  </si>
-  <si>
-    <t>0.658+/-0.009</t>
-  </si>
-  <si>
-    <t>0.269</t>
-  </si>
-  <si>
-    <t>0.782+/-0.006</t>
-  </si>
-  <si>
-    <t>0.76+/-0.015</t>
-  </si>
-  <si>
-    <t>0.595</t>
-  </si>
-  <si>
-    <t>37.951+/-2.388</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.95+/-0.019</t>
-  </si>
-  <si>
-    <t>0.782+/-0.0</t>
-  </si>
-  <si>
-    <t>0.587</t>
-  </si>
-  <si>
-    <t>0.927+/-0.024</t>
-  </si>
-  <si>
-    <t>0.706+/-0.013</t>
-  </si>
-  <si>
-    <t>0.198</t>
-  </si>
-  <si>
-    <t>0.978+/-0.064</t>
-  </si>
-  <si>
-    <t>0.966+/-0.068</t>
-  </si>
-  <si>
-    <t>0.573</t>
-  </si>
-  <si>
-    <t>0.648+/-0.001</t>
-  </si>
-  <si>
-    <t>0.647+/-0.0</t>
-  </si>
-  <si>
-    <t>0.634+/-0.001</t>
-  </si>
-  <si>
-    <t>0.633+/-0.008</t>
-  </si>
-  <si>
-    <t>0.194</t>
-  </si>
-  <si>
-    <t>0.702+/-0.002</t>
-  </si>
-  <si>
-    <t>0.7+/-0.016</t>
-  </si>
-  <si>
-    <t>0.591</t>
-  </si>
-  <si>
-    <t>0.602+/-0.05</t>
-  </si>
-  <si>
-    <t>0.573+/-0.002</t>
-  </si>
-  <si>
-    <t>0.572+/-0.0</t>
-  </si>
-  <si>
-    <t>0.373</t>
-  </si>
-  <si>
-    <t>0.548+/-0.001</t>
-  </si>
-  <si>
-    <t>0.547+/-0.008</t>
-  </si>
-  <si>
-    <t>0.164</t>
-  </si>
-  <si>
-    <t>0.842+/-0.002</t>
-  </si>
-  <si>
-    <t>0.842+/-0.017</t>
-  </si>
-  <si>
-    <t>0.778</t>
-  </si>
-  <si>
-    <t>0.607+/-0.001</t>
-  </si>
-  <si>
-    <t>0.606+/-0.0</t>
-  </si>
-  <si>
-    <t>0.501</t>
-  </si>
-  <si>
-    <t>0.589+/-0.001</t>
-  </si>
-  <si>
-    <t>0.588+/-0.01</t>
-  </si>
-  <si>
-    <t>0.172</t>
-  </si>
-  <si>
-    <t>0.707+/-0.003</t>
-  </si>
-  <si>
-    <t>0.706+/-0.022</t>
-  </si>
-  <si>
-    <t>0.609</t>
-  </si>
-  <si>
-    <t>0.007+/-0.0</t>
-  </si>
-  <si>
-    <t>0.801+/-0.008</t>
-  </si>
-  <si>
-    <t>0.752+/-0.0</t>
-  </si>
-  <si>
-    <t>0.64</t>
-  </si>
-  <si>
-    <t>0.754+/-0.01</t>
-  </si>
-  <si>
-    <t>0.71+/-0.013</t>
-  </si>
-  <si>
-    <t>0.215</t>
-  </si>
-  <si>
-    <t>0.893+/-0.019</t>
-  </si>
-  <si>
-    <t>0.855+/-0.027</t>
-  </si>
-  <si>
-    <t>0.527</t>
-  </si>
-  <si>
-    <t>4.557+/-0.621</t>
-  </si>
-  <si>
-    <t>0.802+/-0.01</t>
-  </si>
-  <si>
-    <t>0.754+/-0.0</t>
-  </si>
-  <si>
-    <t>0.674</t>
-  </si>
-  <si>
-    <t>0.793+/-0.014</t>
-  </si>
-  <si>
-    <t>0.745+/-0.017</t>
-  </si>
-  <si>
-    <t>0.819+/-0.027</t>
-  </si>
-  <si>
-    <t>0.775+/-0.03</t>
-  </si>
-  <si>
-    <t>0.434</t>
-  </si>
-  <si>
-    <t>0.108+/-0.008</t>
-  </si>
-  <si>
-    <t>0.792+/-0.009</t>
-  </si>
-  <si>
-    <t>0.748+/-0.0</t>
-  </si>
-  <si>
-    <t>0.69</t>
-  </si>
-  <si>
-    <t>0.785+/-0.016</t>
-  </si>
-  <si>
-    <t>0.739+/-0.018</t>
-  </si>
-  <si>
-    <t>0.226</t>
-  </si>
-  <si>
-    <t>0.805+/-0.025</t>
-  </si>
-  <si>
-    <t>0.767+/-0.029</t>
-  </si>
-  <si>
-    <t>0.441</t>
-  </si>
-  <si>
-    <t>0.142+/-0.006</t>
-  </si>
-  <si>
-    <t>0.712+/-0.002</t>
-  </si>
-  <si>
-    <t>0.697+/-0.0</t>
-  </si>
-  <si>
-    <t>0.616</t>
-  </si>
-  <si>
-    <t>0.689+/-0.002</t>
-  </si>
-  <si>
-    <t>0.676+/-0.009</t>
-  </si>
-  <si>
-    <t>0.211</t>
-  </si>
-  <si>
-    <t>0.773+/-0.004</t>
-  </si>
-  <si>
-    <t>0.758+/-0.021</t>
-  </si>
-  <si>
-    <t>0.57</t>
-  </si>
-  <si>
-    <t>41.361+/-3.781</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.15+/-0.229</t>
-  </si>
-  <si>
-    <t>0.3+/-0.458</t>
-  </si>
-  <si>
-    <t>0.956+/-0.005</t>
-  </si>
-  <si>
-    <t>0.699+/-0.0</t>
-  </si>
-  <si>
-    <t>0.575</t>
-  </si>
-  <si>
-    <t>0.99+/-0.031</t>
-  </si>
-  <si>
-    <t>0.654+/-0.017</t>
-  </si>
-  <si>
-    <t>0.325</t>
-  </si>
-  <si>
-    <t>0.924+/-0.025</t>
-  </si>
-  <si>
-    <t>0.847+/-0.028</t>
-  </si>
-  <si>
-    <t>0.497</t>
-  </si>
-  <si>
-    <t>0.568+/-0.002</t>
-  </si>
-  <si>
-    <t>0.564+/-0.0</t>
-  </si>
-  <si>
-    <t>0.597</t>
-  </si>
-  <si>
-    <t>0.578+/-0.002</t>
-  </si>
-  <si>
-    <t>0.574+/-0.012</t>
-  </si>
-  <si>
-    <t>0.342</t>
-  </si>
-  <si>
-    <t>0.503+/-0.006</t>
-  </si>
-  <si>
-    <t>0.498+/-0.023</t>
-  </si>
-  <si>
-    <t>0.493</t>
-  </si>
-  <si>
-    <t>0.291+/-0.091</t>
-  </si>
-  <si>
-    <t>0.549+/-0.002</t>
-  </si>
-  <si>
-    <t>0.546+/-0.0</t>
-  </si>
-  <si>
-    <t>0.619</t>
-  </si>
-  <si>
-    <t>0.573+/-0.003</t>
-  </si>
-  <si>
-    <t>0.569+/-0.022</t>
-  </si>
-  <si>
-    <t>0.338</t>
-  </si>
-  <si>
-    <t>0.387+/-0.019</t>
-  </si>
-  <si>
-    <t>0.383+/-0.024</t>
-  </si>
-  <si>
-    <t>0.39</t>
-  </si>
-  <si>
-    <t>0.548+/-0.002</t>
-  </si>
-  <si>
-    <t>0.547+/-0.0</t>
-  </si>
-  <si>
-    <t>0.577</t>
-  </si>
-  <si>
-    <t>0.554+/-0.002</t>
-  </si>
-  <si>
-    <t>0.553+/-0.016</t>
-  </si>
-  <si>
-    <t>0.492+/-0.003</t>
-  </si>
-  <si>
-    <t>0.491+/-0.021</t>
-  </si>
-  <si>
-    <t>0.489</t>
-  </si>
-  <si>
-    <t>0.007+/-0.001</t>
-  </si>
-  <si>
-    <t>0.71+/-0.006</t>
-  </si>
-  <si>
-    <t>0.634+/-0.0</t>
-  </si>
-  <si>
-    <t>0.615</t>
-  </si>
-  <si>
-    <t>0.726+/-0.019</t>
-  </si>
-  <si>
-    <t>0.642+/-0.019</t>
-  </si>
-  <si>
-    <t>0.334</t>
-  </si>
-  <si>
-    <t>0.679+/-0.043</t>
-  </si>
-  <si>
-    <t>0.608+/-0.039</t>
-  </si>
-  <si>
-    <t>0.396</t>
-  </si>
-  <si>
-    <t>4.247+/-0.858</t>
-  </si>
-  <si>
-    <t>0.721+/-0.003</t>
-  </si>
-  <si>
-    <t>0.653+/-0.0</t>
-  </si>
-  <si>
-    <t>0.606</t>
-  </si>
-  <si>
-    <t>0.762+/-0.03</t>
-  </si>
-  <si>
-    <t>0.68+/-0.014</t>
-  </si>
-  <si>
-    <t>0.346</t>
-  </si>
-  <si>
-    <t>0.649+/-0.043</t>
-  </si>
-  <si>
-    <t>0.582+/-0.053</t>
-  </si>
-  <si>
-    <t>0.476</t>
-  </si>
-  <si>
-    <t>0.103+/-0.009</t>
-  </si>
-  <si>
-    <t>0.71+/-0.004</t>
-  </si>
-  <si>
-    <t>0.608</t>
-  </si>
-  <si>
-    <t>0.758+/-0.036</t>
-  </si>
-  <si>
-    <t>0.687+/-0.021</t>
-  </si>
-  <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>0.624+/-0.051</t>
-  </si>
-  <si>
-    <t>0.568+/-0.06</t>
-  </si>
-  <si>
-    <t>0.483</t>
-  </si>
-  <si>
-    <t>0.138+/-0.009</t>
-  </si>
-  <si>
-    <t>0.651+/-0.003</t>
-  </si>
-  <si>
-    <t>0.604+/-0.0</t>
-  </si>
-  <si>
-    <t>0.622</t>
-  </si>
-  <si>
-    <t>0.663+/-0.004</t>
-  </si>
-  <si>
-    <t>0.611+/-0.017</t>
-  </si>
-  <si>
-    <t>0.365</t>
-  </si>
-  <si>
-    <t>0.617+/-0.013</t>
-  </si>
-  <si>
-    <t>0.575+/-0.014</t>
-  </si>
-  <si>
-    <t>0.495</t>
-  </si>
-  <si>
-    <t>32.452+/-1.104</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.25+/-0.25</t>
-  </si>
-  <si>
-    <t>0.5+/-0.5</t>
-  </si>
-  <si>
-    <t>0.0+/-0.0</t>
-  </si>
-  <si>
-    <t>0.958+/-0.006</t>
-  </si>
-  <si>
-    <t>0.688+/-0.0</t>
-  </si>
-  <si>
-    <t>0.547</t>
-  </si>
-  <si>
-    <t>0.989+/-0.032</t>
-  </si>
-  <si>
-    <t>0.649+/-0.016</t>
-  </si>
-  <si>
-    <t>0.333</t>
-  </si>
-  <si>
-    <t>0.928+/-0.024</t>
-  </si>
-  <si>
-    <t>0.824+/-0.024</t>
-  </si>
-  <si>
-    <t>0.471</t>
-  </si>
-  <si>
-    <t>0.556+/-0.002</t>
-  </si>
-  <si>
-    <t>0.549+/-0.0</t>
-  </si>
-  <si>
-    <t>0.574</t>
-  </si>
-  <si>
-    <t>0.561+/-0.003</t>
-  </si>
-  <si>
-    <t>0.554+/-0.016</t>
-  </si>
-  <si>
-    <t>0.362</t>
-  </si>
-  <si>
-    <t>0.508+/-0.009</t>
-  </si>
-  <si>
-    <t>0.501+/-0.023</t>
-  </si>
-  <si>
-    <t>0.499</t>
-  </si>
-  <si>
-    <t>0.225+/-0.073</t>
-  </si>
-  <si>
-    <t>0.54+/-0.004</t>
-  </si>
-  <si>
-    <t>0.54+/-0.0</t>
-  </si>
-  <si>
-    <t>0.566+/-0.004</t>
-  </si>
-  <si>
-    <t>0.565+/-0.028</t>
-  </si>
-  <si>
-    <t>0.375</t>
-  </si>
-  <si>
-    <t>0.341+/-0.021</t>
-  </si>
-  <si>
-    <t>0.344+/-0.039</t>
-  </si>
-  <si>
-    <t>0.354</t>
-  </si>
-  <si>
-    <t>0.005+/-0.001</t>
-  </si>
-  <si>
-    <t>0.544+/-0.002</t>
-  </si>
-  <si>
-    <t>0.543+/-0.0</t>
-  </si>
-  <si>
-    <t>0.568</t>
-  </si>
-  <si>
-    <t>0.55+/-0.002</t>
-  </si>
-  <si>
-    <t>0.549+/-0.019</t>
-  </si>
-  <si>
-    <t>0.351</t>
-  </si>
-  <si>
-    <t>0.483+/-0.002</t>
-  </si>
-  <si>
-    <t>0.482+/-0.023</t>
-  </si>
-  <si>
-    <t>0.475</t>
-  </si>
-  <si>
-    <t>0.699+/-0.013</t>
-  </si>
-  <si>
-    <t>0.61+/-0.0</t>
-  </si>
-  <si>
-    <t>0.611</t>
-  </si>
-  <si>
-    <t>0.72+/-0.026</t>
-  </si>
-  <si>
-    <t>0.618+/-0.011</t>
-  </si>
-  <si>
-    <t>0.374</t>
-  </si>
-  <si>
-    <t>0.656+/-0.057</t>
-  </si>
-  <si>
-    <t>0.579+/-0.063</t>
-  </si>
-  <si>
-    <t>0.387</t>
-  </si>
-  <si>
-    <t>4.318+/-0.735</t>
-  </si>
-  <si>
-    <t>0.724+/-0.008</t>
-  </si>
-  <si>
-    <t>0.644+/-0.0</t>
-  </si>
-  <si>
-    <t>0.63</t>
-  </si>
-  <si>
-    <t>0.791+/-0.02</t>
-  </si>
-  <si>
-    <t>0.687+/-0.018</t>
-  </si>
-  <si>
-    <t>0.377</t>
-  </si>
-  <si>
-    <t>0.61+/-0.029</t>
-  </si>
-  <si>
-    <t>0.531+/-0.039</t>
-  </si>
-  <si>
-    <t>0.311</t>
-  </si>
-  <si>
-    <t>0.085+/-0.008</t>
-  </si>
-  <si>
-    <t>0.706+/-0.008</t>
-  </si>
-  <si>
-    <t>0.64+/-0.0</t>
-  </si>
-  <si>
-    <t>0.61</t>
-  </si>
-  <si>
-    <t>0.773+/-0.028</t>
-  </si>
-  <si>
-    <t>0.687+/-0.029</t>
-  </si>
-  <si>
-    <t>0.589+/-0.043</t>
-  </si>
-  <si>
-    <t>0.519+/-0.051</t>
-  </si>
-  <si>
-    <t>0.391</t>
-  </si>
-  <si>
-    <t>0.114+/-0.006</t>
-  </si>
-  <si>
-    <t>0.639+/-0.002</t>
+    <t>44.911+/-16.519</t>
+  </si>
+  <si>
+    <t>0.719+/-0.01</t>
   </si>
   <si>
     <t>0.597+/-0.0</t>
   </si>
   <si>
-    <t>0.634+/-0.003</t>
-  </si>
-  <si>
-    <t>0.593+/-0.01</t>
-  </si>
-  <si>
-    <t>0.369</t>
-  </si>
-  <si>
-    <t>0.661+/-0.009</t>
-  </si>
-  <si>
-    <t>0.622+/-0.021</t>
-  </si>
-  <si>
-    <t>0.551</t>
-  </si>
-  <si>
-    <t>32.255+/-1.754</t>
+    <t>0.677</t>
+  </si>
+  <si>
+    <t>0.756+/-0.025</t>
+  </si>
+  <si>
+    <t>0.338+/-0.023</t>
+  </si>
+  <si>
+    <t>0.431</t>
+  </si>
+  <si>
+    <t>0.649+/-0.028</t>
+  </si>
+  <si>
+    <t>0.324+/-0.047</t>
+  </si>
+  <si>
+    <t>0.147</t>
+  </si>
+  <si>
+    <t>0.813+/-0.01</t>
+  </si>
+  <si>
+    <t>0.524+/-0.018</t>
+  </si>
+  <si>
+    <t>0.145+/-0.031</t>
+  </si>
+  <si>
+    <t>0.7+/-0.01</t>
+  </si>
+  <si>
+    <t>0.602+/-0.0</t>
+  </si>
+  <si>
+    <t>0.667</t>
+  </si>
+  <si>
+    <t>0.745+/-0.032</t>
+  </si>
+  <si>
+    <t>0.336+/-0.014</t>
+  </si>
+  <si>
+    <t>0.388</t>
+  </si>
+  <si>
+    <t>0.613+/-0.047</t>
+  </si>
+  <si>
+    <t>0.302+/-0.075</t>
+  </si>
+  <si>
+    <t>0.141</t>
+  </si>
+  <si>
+    <t>0.519+/-0.018</t>
+  </si>
+  <si>
+    <t>0.562</t>
+  </si>
+  <si>
+    <t>0.177+/-0.005</t>
+  </si>
+  <si>
+    <t>0.641+/-0.003</t>
+  </si>
+  <si>
+    <t>0.556+/-0.0</t>
+  </si>
+  <si>
+    <t>0.637+/-0.004</t>
+  </si>
+  <si>
+    <t>0.347+/-0.013</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>0.653+/-0.011</t>
+  </si>
+  <si>
+    <t>0.496+/-0.024</t>
+  </si>
+  <si>
+    <t>0.023</t>
+  </si>
+  <si>
+    <t>0.698+/-0.003</t>
+  </si>
+  <si>
+    <t>0.56+/-0.014</t>
+  </si>
+  <si>
+    <t>0.545</t>
+  </si>
+  <si>
+    <t>50.687+/-2.718</t>
   </si>
 </sst>
 </file>
@@ -1388,7 +1658,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1428,31 +1698,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="I2" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="J2" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1460,31 +1730,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="I3" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="J3" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1492,31 +1762,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="I4" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="J4" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1524,31 +1794,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="I5" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="J5" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1556,31 +1826,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="J6" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1588,31 +1858,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="H7" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1620,31 +1890,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="G8" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="H8" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1652,31 +1922,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="H9" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="I9" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1684,31 +1954,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="I10" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1716,31 +1986,127 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" t="s">
+        <v>100</v>
+      </c>
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I13" t="s">
+        <v>114</v>
+      </c>
+      <c r="J13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
         <v>64</v>
       </c>
-      <c r="G11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" t="s">
-        <v>92</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="F14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" t="s">
         <v>102</v>
+      </c>
+      <c r="I14" t="s">
+        <v>115</v>
+      </c>
+      <c r="J14" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1750,7 +2116,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1790,31 +2156,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="F2" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="G2" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="H2" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="I2" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="J2" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1822,31 +2188,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="F3" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="G3" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
       <c r="I3" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="J3" t="s">
-        <v>171</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1854,31 +2220,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="F4" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="G4" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="H4" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="I4" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="J4" t="s">
-        <v>172</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1886,31 +2252,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="E5" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="F5" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="G5" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="H5" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="I5" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="J5" t="s">
-        <v>173</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1918,31 +2284,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="F6" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="G6" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="H6" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="I6" t="s">
-        <v>164</v>
+        <v>210</v>
       </c>
       <c r="J6" t="s">
-        <v>174</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1950,31 +2316,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="F7" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="G7" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>198</v>
       </c>
       <c r="I7" t="s">
-        <v>165</v>
+        <v>211</v>
       </c>
       <c r="J7" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1982,31 +2348,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="F8" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="G8" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="H8" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="I8" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="J8" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2014,31 +2380,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="E9" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="F9" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="G9" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="H9" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="I9" t="s">
-        <v>167</v>
+        <v>213</v>
       </c>
       <c r="J9" t="s">
-        <v>177</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2046,31 +2412,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="F10" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="G10" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="H10" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="I10" t="s">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="J10" t="s">
-        <v>178</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2078,31 +2444,127 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>164</v>
       </c>
       <c r="F11" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="G11" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="H11" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
       <c r="I11" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="J11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G12" t="s">
+        <v>190</v>
+      </c>
+      <c r="H12" t="s">
+        <v>203</v>
+      </c>
+      <c r="I12" t="s">
+        <v>216</v>
+      </c>
+      <c r="J12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" t="s">
+        <v>166</v>
+      </c>
+      <c r="F13" t="s">
         <v>179</v>
+      </c>
+      <c r="G13" t="s">
+        <v>191</v>
+      </c>
+      <c r="H13" t="s">
+        <v>204</v>
+      </c>
+      <c r="I13" t="s">
+        <v>217</v>
+      </c>
+      <c r="J13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" t="s">
+        <v>167</v>
+      </c>
+      <c r="F14" t="s">
+        <v>180</v>
+      </c>
+      <c r="G14" t="s">
+        <v>192</v>
+      </c>
+      <c r="H14" t="s">
+        <v>205</v>
+      </c>
+      <c r="I14" t="s">
+        <v>218</v>
+      </c>
+      <c r="J14" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2112,7 +2574,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2152,31 +2614,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>183</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="E2" t="s">
-        <v>202</v>
+        <v>258</v>
       </c>
       <c r="F2" t="s">
-        <v>211</v>
+        <v>271</v>
       </c>
       <c r="G2" t="s">
-        <v>220</v>
+        <v>282</v>
       </c>
       <c r="H2" t="s">
-        <v>230</v>
+        <v>293</v>
       </c>
       <c r="I2" t="s">
-        <v>240</v>
+        <v>306</v>
       </c>
       <c r="J2" t="s">
-        <v>249</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2184,31 +2646,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>231</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
+        <v>235</v>
       </c>
       <c r="D3" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="E3" t="s">
-        <v>203</v>
+        <v>259</v>
       </c>
       <c r="F3" t="s">
-        <v>212</v>
+        <v>272</v>
       </c>
       <c r="G3" t="s">
-        <v>221</v>
+        <v>283</v>
       </c>
       <c r="H3" t="s">
-        <v>231</v>
+        <v>294</v>
       </c>
       <c r="I3" t="s">
-        <v>231</v>
+        <v>307</v>
       </c>
       <c r="J3" t="s">
-        <v>250</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2216,31 +2678,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>232</v>
       </c>
       <c r="C4" t="s">
-        <v>185</v>
+        <v>236</v>
       </c>
       <c r="D4" t="s">
-        <v>194</v>
+        <v>232</v>
       </c>
       <c r="E4" t="s">
-        <v>204</v>
+        <v>260</v>
       </c>
       <c r="F4" t="s">
-        <v>213</v>
+        <v>273</v>
       </c>
       <c r="G4" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="H4" t="s">
+        <v>295</v>
+      </c>
+      <c r="I4" t="s">
+        <v>308</v>
+      </c>
+      <c r="J4" t="s">
         <v>232</v>
-      </c>
-      <c r="I4" t="s">
-        <v>241</v>
-      </c>
-      <c r="J4" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2248,31 +2710,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>186</v>
+        <v>237</v>
       </c>
       <c r="D5" t="s">
-        <v>195</v>
+        <v>248</v>
       </c>
       <c r="E5" t="s">
-        <v>205</v>
+        <v>261</v>
       </c>
       <c r="F5" t="s">
-        <v>214</v>
+        <v>274</v>
       </c>
       <c r="G5" t="s">
-        <v>223</v>
+        <v>284</v>
       </c>
       <c r="H5" t="s">
-        <v>233</v>
+        <v>296</v>
       </c>
       <c r="I5" t="s">
-        <v>242</v>
+        <v>309</v>
       </c>
       <c r="J5" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2280,31 +2742,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>181</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="D6" t="s">
-        <v>196</v>
+        <v>249</v>
       </c>
       <c r="E6" t="s">
-        <v>206</v>
+        <v>262</v>
       </c>
       <c r="F6" t="s">
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="G6" t="s">
-        <v>224</v>
+        <v>285</v>
       </c>
       <c r="H6" t="s">
-        <v>234</v>
+        <v>297</v>
       </c>
       <c r="I6" t="s">
-        <v>243</v>
+        <v>310</v>
       </c>
       <c r="J6" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2312,31 +2774,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="D7" t="s">
-        <v>197</v>
+        <v>250</v>
       </c>
       <c r="E7" t="s">
-        <v>207</v>
+        <v>263</v>
       </c>
       <c r="F7" t="s">
-        <v>188</v>
+        <v>276</v>
       </c>
       <c r="G7" t="s">
-        <v>225</v>
+        <v>286</v>
       </c>
       <c r="H7" t="s">
-        <v>235</v>
+        <v>298</v>
       </c>
       <c r="I7" t="s">
-        <v>244</v>
+        <v>311</v>
       </c>
       <c r="J7" t="s">
-        <v>254</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2344,31 +2806,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>182</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="D8" t="s">
-        <v>198</v>
+        <v>251</v>
       </c>
       <c r="E8" t="s">
-        <v>208</v>
+        <v>264</v>
       </c>
       <c r="F8" t="s">
-        <v>216</v>
+        <v>277</v>
       </c>
       <c r="G8" t="s">
-        <v>226</v>
+        <v>287</v>
       </c>
       <c r="H8" t="s">
-        <v>236</v>
+        <v>299</v>
       </c>
       <c r="I8" t="s">
-        <v>245</v>
+        <v>312</v>
       </c>
       <c r="J8" t="s">
-        <v>255</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2376,31 +2838,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>182</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="D9" t="s">
-        <v>199</v>
+        <v>252</v>
       </c>
       <c r="E9" t="s">
-        <v>209</v>
+        <v>265</v>
       </c>
       <c r="F9" t="s">
-        <v>217</v>
+        <v>278</v>
       </c>
       <c r="G9" t="s">
-        <v>227</v>
+        <v>288</v>
       </c>
       <c r="H9" t="s">
-        <v>237</v>
+        <v>300</v>
       </c>
       <c r="I9" t="s">
-        <v>246</v>
+        <v>313</v>
       </c>
       <c r="J9" t="s">
-        <v>256</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2408,31 +2870,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="D10" t="s">
-        <v>200</v>
+        <v>253</v>
       </c>
       <c r="E10" t="s">
-        <v>210</v>
+        <v>266</v>
       </c>
       <c r="F10" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
       <c r="G10" t="s">
-        <v>228</v>
+        <v>289</v>
       </c>
       <c r="H10" t="s">
-        <v>238</v>
+        <v>301</v>
       </c>
       <c r="I10" t="s">
-        <v>247</v>
+        <v>314</v>
       </c>
       <c r="J10" t="s">
-        <v>257</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2440,31 +2902,127 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>243</v>
       </c>
       <c r="D11" t="s">
-        <v>201</v>
+        <v>254</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>267</v>
       </c>
       <c r="F11" t="s">
-        <v>219</v>
+        <v>261</v>
       </c>
       <c r="G11" t="s">
-        <v>229</v>
+        <v>290</v>
       </c>
       <c r="H11" t="s">
-        <v>239</v>
+        <v>302</v>
       </c>
       <c r="I11" t="s">
-        <v>248</v>
+        <v>315</v>
       </c>
       <c r="J11" t="s">
-        <v>258</v>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D12" t="s">
+        <v>255</v>
+      </c>
+      <c r="E12" t="s">
+        <v>268</v>
+      </c>
+      <c r="F12" t="s">
+        <v>279</v>
+      </c>
+      <c r="G12" t="s">
+        <v>291</v>
+      </c>
+      <c r="H12" t="s">
+        <v>303</v>
+      </c>
+      <c r="I12" t="s">
+        <v>316</v>
+      </c>
+      <c r="J12" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>245</v>
+      </c>
+      <c r="D13" t="s">
+        <v>256</v>
+      </c>
+      <c r="E13" t="s">
+        <v>269</v>
+      </c>
+      <c r="F13" t="s">
+        <v>280</v>
+      </c>
+      <c r="G13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" t="s">
+        <v>304</v>
+      </c>
+      <c r="I13" t="s">
+        <v>317</v>
+      </c>
+      <c r="J13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>233</v>
+      </c>
+      <c r="C14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" t="s">
+        <v>257</v>
+      </c>
+      <c r="E14" t="s">
+        <v>270</v>
+      </c>
+      <c r="F14" t="s">
+        <v>281</v>
+      </c>
+      <c r="G14" t="s">
+        <v>292</v>
+      </c>
+      <c r="H14" t="s">
+        <v>305</v>
+      </c>
+      <c r="I14" t="s">
+        <v>318</v>
+      </c>
+      <c r="J14" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -2474,7 +3032,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2514,31 +3072,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>263</v>
+        <v>332</v>
       </c>
       <c r="D2" t="s">
-        <v>272</v>
+        <v>343</v>
       </c>
       <c r="E2" t="s">
-        <v>282</v>
+        <v>356</v>
       </c>
       <c r="F2" t="s">
-        <v>291</v>
+        <v>367</v>
       </c>
       <c r="G2" t="s">
-        <v>300</v>
+        <v>379</v>
       </c>
       <c r="H2" t="s">
-        <v>310</v>
+        <v>392</v>
       </c>
       <c r="I2" t="s">
-        <v>320</v>
+        <v>404</v>
       </c>
       <c r="J2" t="s">
-        <v>329</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2546,31 +3104,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>330</v>
       </c>
       <c r="C3" t="s">
-        <v>264</v>
+        <v>333</v>
       </c>
       <c r="D3" t="s">
-        <v>273</v>
+        <v>344</v>
       </c>
       <c r="E3" t="s">
-        <v>283</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>292</v>
+        <v>368</v>
       </c>
       <c r="G3" t="s">
-        <v>301</v>
+        <v>380</v>
       </c>
       <c r="H3" t="s">
-        <v>311</v>
+        <v>393</v>
       </c>
       <c r="I3" t="s">
-        <v>321</v>
+        <v>405</v>
       </c>
       <c r="J3" t="s">
-        <v>330</v>
+        <v>417</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2578,31 +3136,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>259</v>
+        <v>331</v>
       </c>
       <c r="C4" t="s">
-        <v>265</v>
+        <v>334</v>
       </c>
       <c r="D4" t="s">
-        <v>274</v>
+        <v>345</v>
       </c>
       <c r="E4" t="s">
-        <v>204</v>
+        <v>357</v>
       </c>
       <c r="F4" t="s">
-        <v>293</v>
+        <v>369</v>
       </c>
       <c r="G4" t="s">
-        <v>302</v>
+        <v>381</v>
       </c>
       <c r="H4" t="s">
-        <v>312</v>
+        <v>394</v>
       </c>
       <c r="I4" t="s">
-        <v>322</v>
+        <v>406</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2610,31 +3168,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>260</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>266</v>
+        <v>335</v>
       </c>
       <c r="D5" t="s">
-        <v>275</v>
+        <v>346</v>
       </c>
       <c r="E5" t="s">
-        <v>284</v>
+        <v>358</v>
       </c>
       <c r="F5" t="s">
-        <v>294</v>
+        <v>370</v>
       </c>
       <c r="G5" t="s">
-        <v>303</v>
+        <v>382</v>
       </c>
       <c r="H5" t="s">
-        <v>313</v>
+        <v>395</v>
       </c>
       <c r="I5" t="s">
-        <v>323</v>
+        <v>407</v>
       </c>
       <c r="J5" t="s">
-        <v>331</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2642,31 +3200,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>260</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>267</v>
+        <v>336</v>
       </c>
       <c r="D6" t="s">
-        <v>276</v>
+        <v>347</v>
       </c>
       <c r="E6" t="s">
-        <v>285</v>
+        <v>359</v>
       </c>
       <c r="F6" t="s">
-        <v>295</v>
+        <v>371</v>
       </c>
       <c r="G6" t="s">
-        <v>304</v>
+        <v>383</v>
       </c>
       <c r="H6" t="s">
-        <v>314</v>
+        <v>396</v>
       </c>
       <c r="I6" t="s">
-        <v>324</v>
+        <v>408</v>
       </c>
       <c r="J6" t="s">
-        <v>332</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2674,31 +3232,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>268</v>
+        <v>337</v>
       </c>
       <c r="D7" t="s">
-        <v>277</v>
+        <v>348</v>
       </c>
       <c r="E7" t="s">
-        <v>286</v>
+        <v>360</v>
       </c>
       <c r="F7" t="s">
-        <v>296</v>
+        <v>372</v>
       </c>
       <c r="G7" t="s">
-        <v>305</v>
+        <v>384</v>
       </c>
       <c r="H7" t="s">
-        <v>315</v>
+        <v>397</v>
       </c>
       <c r="I7" t="s">
-        <v>124</v>
+        <v>409</v>
       </c>
       <c r="J7" t="s">
-        <v>333</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2706,31 +3264,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>261</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>269</v>
+        <v>338</v>
       </c>
       <c r="D8" t="s">
-        <v>278</v>
+        <v>349</v>
       </c>
       <c r="E8" t="s">
-        <v>287</v>
+        <v>361</v>
       </c>
       <c r="F8" t="s">
-        <v>297</v>
+        <v>373</v>
       </c>
       <c r="G8" t="s">
-        <v>306</v>
+        <v>385</v>
       </c>
       <c r="H8" t="s">
-        <v>316</v>
+        <v>398</v>
       </c>
       <c r="I8" t="s">
-        <v>325</v>
+        <v>410</v>
       </c>
       <c r="J8" t="s">
-        <v>334</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2738,31 +3296,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>261</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>270</v>
+        <v>339</v>
       </c>
       <c r="D9" t="s">
-        <v>279</v>
+        <v>350</v>
       </c>
       <c r="E9" t="s">
-        <v>288</v>
+        <v>362</v>
       </c>
       <c r="F9" t="s">
-        <v>298</v>
+        <v>374</v>
       </c>
       <c r="G9" t="s">
-        <v>307</v>
+        <v>386</v>
       </c>
       <c r="H9" t="s">
-        <v>317</v>
+        <v>399</v>
       </c>
       <c r="I9" t="s">
-        <v>326</v>
+        <v>411</v>
       </c>
       <c r="J9" t="s">
-        <v>335</v>
+        <v>422</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2770,31 +3328,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="D10" t="s">
-        <v>280</v>
+        <v>351</v>
       </c>
       <c r="E10" t="s">
-        <v>289</v>
+        <v>363</v>
       </c>
       <c r="F10" t="s">
-        <v>299</v>
+        <v>372</v>
       </c>
       <c r="G10" t="s">
-        <v>308</v>
+        <v>387</v>
       </c>
       <c r="H10" t="s">
-        <v>318</v>
+        <v>400</v>
       </c>
       <c r="I10" t="s">
-        <v>327</v>
+        <v>412</v>
       </c>
       <c r="J10" t="s">
-        <v>336</v>
+        <v>423</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2802,31 +3360,127 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>262</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>243</v>
       </c>
       <c r="D11" t="s">
-        <v>281</v>
+        <v>352</v>
       </c>
       <c r="E11" t="s">
-        <v>290</v>
+        <v>364</v>
       </c>
       <c r="F11" t="s">
-        <v>219</v>
+        <v>375</v>
       </c>
       <c r="G11" t="s">
-        <v>309</v>
+        <v>388</v>
       </c>
       <c r="H11" t="s">
-        <v>319</v>
+        <v>401</v>
       </c>
       <c r="I11" t="s">
-        <v>328</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s">
-        <v>337</v>
+        <v>424</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>340</v>
+      </c>
+      <c r="D12" t="s">
+        <v>353</v>
+      </c>
+      <c r="E12" t="s">
+        <v>365</v>
+      </c>
+      <c r="F12" t="s">
+        <v>376</v>
+      </c>
+      <c r="G12" t="s">
+        <v>389</v>
+      </c>
+      <c r="H12" t="s">
+        <v>402</v>
+      </c>
+      <c r="I12" t="s">
+        <v>413</v>
+      </c>
+      <c r="J12" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>341</v>
+      </c>
+      <c r="D13" t="s">
+        <v>354</v>
+      </c>
+      <c r="E13" t="s">
+        <v>280</v>
+      </c>
+      <c r="F13" t="s">
+        <v>377</v>
+      </c>
+      <c r="G13" t="s">
+        <v>390</v>
+      </c>
+      <c r="H13" t="s">
+        <v>317</v>
+      </c>
+      <c r="I13" t="s">
+        <v>414</v>
+      </c>
+      <c r="J13" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" t="s">
+        <v>342</v>
+      </c>
+      <c r="D14" t="s">
+        <v>355</v>
+      </c>
+      <c r="E14" t="s">
+        <v>366</v>
+      </c>
+      <c r="F14" t="s">
+        <v>378</v>
+      </c>
+      <c r="G14" t="s">
+        <v>391</v>
+      </c>
+      <c r="H14" t="s">
+        <v>403</v>
+      </c>
+      <c r="I14" t="s">
+        <v>415</v>
+      </c>
+      <c r="J14" t="s">
+        <v>427</v>
       </c>
     </row>
   </sheetData>
